--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F55651-FF03-49D0-B2A0-15CD9D8DC041}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -611,15 +610,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -679,6 +678,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1685,16 +1685,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1798,23 +1798,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1850,23 +1833,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2042,25 +2008,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.265625" customWidth="1"/>
+    <col min="5" max="5" width="73.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
@@ -2079,23 +2045,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="5"/>
       <c r="E5" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2103,7 +2069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2111,7 +2077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>2017</v>
       </c>
@@ -2119,7 +2085,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -2127,7 +2093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -2135,75 +2101,75 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="33"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/" xr:uid="{43B0F48A-4060-4360-94DD-36CF91F8B839}"/>
+    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2211,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2221,12 +2187,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2299,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -2615,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -2897,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -3038,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -3179,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -3326,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3336,12 +3302,12 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -3448,7 +3414,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3589,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -3730,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -4012,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -4153,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -4294,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -4441,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4449,12 +4415,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -4561,7 +4527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4702,7 +4668,7 @@
         <v>0.59970320214964024</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -5125,7 +5091,7 @@
         <v>0.9636176470588218</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -5407,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -5554,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5564,12 +5530,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -5676,7 +5642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5821,7 +5787,7 @@
         <v>0.15128411562601229</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -5966,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -6111,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -6256,7 +6222,7 @@
         <v>0.66133333333333155</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -6401,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -6546,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -6697,7 +6663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6707,12 +6673,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -6819,7 +6785,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6960,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -7101,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -7242,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -7383,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -7665,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -7812,7 +7778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7822,12 +7788,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -7934,7 +7900,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8075,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8216,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8357,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8498,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -8639,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -8780,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -8927,7 +8893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8937,12 +8903,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -9049,7 +9015,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9190,7 +9156,7 @@
         <v>0.59813097263345971</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -9331,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -9472,7 +9438,7 @@
         <v>0.99883706996296318</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -9613,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -9754,7 +9720,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -9895,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -10042,7 +10008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10052,12 +10018,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -10164,7 +10130,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10305,7 +10271,7 @@
         <v>0.14961232865051319</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -10446,7 +10412,7 @@
         <v>5.8197367918530585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -10587,7 +10553,7 @@
         <v>0.78823529411764781</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -10728,7 +10694,7 @@
         <v>0.72228445041798395</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -10869,7 +10835,7 @@
         <v>7.4749889451943996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -11010,7 +10976,7 @@
         <v>4.4598451660617933E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -11157,21 +11123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="2" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11197,7 +11163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11223,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11249,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11275,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11301,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11327,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -11359,21 +11325,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="2" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11399,7 +11365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11425,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11451,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11477,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11503,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11529,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -11561,20 +11527,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="3" max="3" width="55.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -11584,7 +11550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -11592,7 +11558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11600,7 +11566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -11608,84 +11574,84 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11693,7 +11659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <f>'SYVbT-passenger'!B2/SUM('SYVbT-passenger'!B2:F2)</f>
         <v>1.9470186233296542E-2</v>
@@ -11702,7 +11668,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>A14*A17</f>
         <v>0.3</v>
@@ -11711,7 +11677,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="26">
         <f>A20*A26</f>
         <v>0.6</v>
@@ -11720,22 +11686,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -11743,24 +11709,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -11776,25 +11742,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.73046875" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
     <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11806,7 +11772,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11817,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -11828,7 +11794,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11842,7 +11808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -11850,7 +11816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11867,7 +11833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -11990,7 +11956,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12005,7 +11971,7 @@
         <v>1.8960777587192685E-2</v>
       </c>
       <c r="E8" s="29">
-        <f>'India Assumptions'!$A$27</f>
+        <f>'India Assumptions'!A27</f>
         <v>0.6</v>
       </c>
       <c r="F8" s="15" t="str">
@@ -12153,7 +12119,7 @@
         <v>0.5985633089637491</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12310,7 +12276,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -12624,7 +12590,7 @@
         <v>0.44437735849056459</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -12781,7 +12747,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="31" t="s">
@@ -12940,7 +12906,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="35" t="s">
@@ -13098,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -13261,7 +13227,7 @@
         <v>0.1496291065265048</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -13418,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -13575,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -13732,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -13889,7 +13855,7 @@
         <v>7.4814553263252398E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="31" t="s">
@@ -14048,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="35" t="s">
@@ -14206,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -14369,7 +14335,7 @@
         <v>0.5985270108655667</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -14526,7 +14492,7 @@
         <v>6.7904679076016827E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14683,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>5</v>
       </c>
@@ -14840,7 +14806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -14997,7 +14963,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="31" t="s">
@@ -15156,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="13"/>
       <c r="C28" s="35" t="s">
         <v>64</v>
@@ -15313,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -15476,7 +15442,7 @@
         <v>0.1496291065265048</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -15633,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -15790,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>5</v>
       </c>
@@ -15947,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -16104,7 +16070,7 @@
         <v>7.4814553263252398E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="31" t="s">
@@ -16263,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="35" t="s">
@@ -16421,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
         <v>15</v>
       </c>
@@ -16582,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16737,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -16892,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
       <c r="C39" t="s">
         <v>5</v>
@@ -17048,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="C40" t="s">
         <v>6</v>
@@ -17204,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="31" t="s">
@@ -17361,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="6"/>
       <c r="C42" s="35" t="s">
         <v>64</v>
@@ -17517,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
@@ -17678,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17833,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -17988,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>5</v>
       </c>
@@ -18143,7 +18109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -18298,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="31" t="s">
@@ -18455,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="35" t="s">
@@ -18612,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -18775,7 +18741,7 @@
         <v>0.59977993653905948</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -18931,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -19087,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>5</v>
       </c>
@@ -19244,7 +19210,7 @@
         <v>0.97799999999999798</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="C54" t="s">
         <v>6</v>
@@ -19401,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="31" t="s">
@@ -19559,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="6"/>
       <c r="C56" s="35" t="s">
         <v>64</v>
@@ -19716,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>16</v>
       </c>
@@ -19879,7 +19845,7 @@
         <v>0.15128411562601229</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="C58" t="s">
         <v>3</v>
@@ -20036,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="C59" t="s">
         <v>4</v>
@@ -20193,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
         <v>5</v>
       </c>
@@ -20350,7 +20316,7 @@
         <v>0.66133333333333155</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
         <v>6</v>
       </c>
@@ -20506,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="31" t="s">
@@ -20664,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="35" t="s">
@@ -20822,7 +20788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -20983,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -21138,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -21293,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
         <v>5</v>
       </c>
@@ -21448,7 +21414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
         <v>6</v>
       </c>
@@ -21603,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="31" t="s">
@@ -21760,7 +21726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="6"/>
       <c r="C70" s="35" t="s">
         <v>64</v>
@@ -21916,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>17</v>
       </c>
@@ -22077,7 +22043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -22232,7 +22198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -22387,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>5</v>
       </c>
@@ -22542,7 +22508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
         <v>6</v>
       </c>
@@ -22697,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="31" t="s">
@@ -22854,7 +22820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="35" t="s">
@@ -23011,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -23174,7 +23140,7 @@
         <v>0.59861419268914939</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -23187,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="15" t="str">
-        <f t="shared" ref="F79:F110" si="8">IF(D79=E79,"n/a",IF(OR(C79="battery electric vehicle",C79="plugin hybrid vehicle"),"s-curve","linear"))</f>
+        <f t="shared" ref="F79:F82" si="8">IF(D79=E79,"n/a",IF(OR(C79="battery electric vehicle",C79="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>n/a</v>
       </c>
       <c r="H79" s="10">
@@ -23331,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -23488,7 +23454,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
         <v>5</v>
       </c>
@@ -23645,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
         <v>6</v>
       </c>
@@ -23802,7 +23768,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="31" t="s">
@@ -23961,7 +23927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B84" s="6"/>
       <c r="C84" s="35" t="s">
         <v>64</v>
@@ -24118,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>18</v>
       </c>
@@ -24281,7 +24247,7 @@
         <v>0.14971255755804119</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -24438,7 +24404,7 @@
         <v>5.6534585978000873E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
         <v>4</v>
       </c>
@@ -24595,7 +24561,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
         <v>5</v>
       </c>
@@ -24752,7 +24718,7 @@
         <v>0.73306481534959644</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
         <v>6</v>
       </c>
@@ -24909,7 +24875,7 @@
         <v>7.4814553263252398E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="31" t="s">
@@ -25068,7 +25034,7 @@
         <v>4.3324210184600531E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="35" t="s">
@@ -25236,7 +25202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25246,12 +25212,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -25358,7 +25324,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -25499,7 +25465,7 @@
         <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -25640,7 +25606,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -25781,7 +25747,7 @@
         <v>0.99136833821006931</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -25922,7 +25888,7 @@
         <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -26063,7 +26029,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -26204,7 +26170,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -26351,7 +26317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26361,12 +26327,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -26473,7 +26439,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -26614,7 +26580,7 @@
         <v>0.14949977890388799</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -26755,7 +26721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -26896,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -27037,7 +27003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -27178,7 +27144,7 @@
         <v>7.4749889451943996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -27319,7 +27285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -27466,7 +27432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27476,12 +27442,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -27588,7 +27554,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -27729,7 +27695,7 @@
         <v>0.5980133911970904</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -27870,7 +27836,7 @@
         <v>6.9901875519429169E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -28011,7 +27977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -28152,7 +28118,7 @@
         <v>0.99947465537210545</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -28293,7 +28259,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -28434,7 +28400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -28581,7 +28547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -28589,12 +28555,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -28701,7 +28667,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -28842,7 +28808,7 @@
         <v>0.14949977890388799</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -28983,7 +28949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -29124,7 +29090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -29265,7 +29231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -29406,7 +29372,7 @@
         <v>7.4749889451943996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -29547,7 +29513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -678,7 +678,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -10140,135 +10139,135 @@
       </c>
       <c r="C2">
         <f>'India Data'!I85</f>
-        <v>3.6056435541586503E-2</v>
+        <v>3.9032481401698134E-2</v>
       </c>
       <c r="D2">
         <f>'India Data'!J85</f>
-        <v>3.6841900503310654E-2</v>
+        <v>4.0831449539840532E-2</v>
       </c>
       <c r="E2">
         <f>'India Data'!K85</f>
-        <v>3.788515075294395E-2</v>
+        <v>4.3220829143839373E-2</v>
       </c>
       <c r="F2">
         <f>'India Data'!L85</f>
-        <v>3.9263257756892135E-2</v>
+        <v>4.6377138733527154E-2</v>
       </c>
       <c r="G2">
         <f>'India Data'!M85</f>
-        <v>4.1070652641625835E-2</v>
+        <v>5.0516656050175315E-2</v>
       </c>
       <c r="H2">
         <f>'India Data'!N85</f>
-        <v>4.3418825967418473E-2</v>
+        <v>5.5894730441506828E-2</v>
       </c>
       <c r="I2">
         <f>'India Data'!O85</f>
-        <v>4.6432505463989998E-2</v>
+        <v>6.2797028643331934E-2</v>
       </c>
       <c r="J2">
         <f>'India Data'!P85</f>
-        <v>5.0240186294681702E-2</v>
+        <v>7.1517846029754875E-2</v>
       </c>
       <c r="K2">
         <f>'India Data'!Q85</f>
-        <v>5.4956967142488919E-2</v>
+        <v>8.2320795713442363E-2</v>
       </c>
       <c r="L2">
         <f>'India Data'!R85</f>
-        <v>6.0658993918239194E-2</v>
+        <v>9.5380276393386546E-2</v>
       </c>
       <c r="M2">
         <f>'India Data'!S85</f>
-        <v>6.7352120319843278E-2</v>
+        <v>0.1107096949260927</v>
       </c>
       <c r="N2">
         <f>'India Data'!T85</f>
-        <v>7.4942454401251274E-2</v>
+        <v>0.12809400846738195</v>
       </c>
       <c r="O2">
         <f>'India Data'!U85</f>
-        <v>8.3221057420644631E-2</v>
+        <v>0.14705467989889578</v>
       </c>
       <c r="P2">
         <f>'India Data'!V85</f>
-        <v>9.1874999999999984E-2</v>
+        <v>0.166875</v>
       </c>
       <c r="Q2">
         <f>'India Data'!W85</f>
-        <v>0.10052894257935535</v>
+        <v>0.18669532010110421</v>
       </c>
       <c r="R2">
         <f>'India Data'!X85</f>
-        <v>0.1088075455987487</v>
+        <v>0.20565599153261802</v>
       </c>
       <c r="S2">
         <f>'India Data'!Y85</f>
-        <v>0.11639787968015669</v>
+        <v>0.22304030507390729</v>
       </c>
       <c r="T2">
         <f>'India Data'!Z85</f>
-        <v>0.1230910060817608</v>
+        <v>0.23836972360661343</v>
       </c>
       <c r="U2">
         <f>'India Data'!AA85</f>
-        <v>0.12879303285751106</v>
+        <v>0.25142920428655757</v>
       </c>
       <c r="V2">
         <f>'India Data'!AB85</f>
-        <v>0.13350981370531828</v>
+        <v>0.26223215397024513</v>
       </c>
       <c r="W2">
         <f>'India Data'!AC85</f>
-        <v>0.13731749453601</v>
+        <v>0.27095297135666802</v>
       </c>
       <c r="X2">
         <f>'India Data'!AD85</f>
-        <v>0.14033117403258152</v>
+        <v>0.27785526955849316</v>
       </c>
       <c r="Y2">
         <f>'India Data'!AE85</f>
-        <v>0.14267934735837415</v>
+        <v>0.28323334394982469</v>
       </c>
       <c r="Z2">
         <f>'India Data'!AF85</f>
-        <v>0.14448674224310787</v>
+        <v>0.28737286126647288</v>
       </c>
       <c r="AA2">
         <f>'India Data'!AG85</f>
-        <v>0.14586484924705603</v>
+        <v>0.29052917085616059</v>
       </c>
       <c r="AB2">
         <f>'India Data'!AH85</f>
-        <v>0.14690809949668931</v>
+        <v>0.29291855046015941</v>
       </c>
       <c r="AC2">
         <f>'India Data'!AI85</f>
-        <v>0.14769356445841347</v>
+        <v>0.29471751859830186</v>
       </c>
       <c r="AD2">
         <f>'India Data'!AJ85</f>
-        <v>0.14828251881565699</v>
+        <v>0.29606641406166606</v>
       </c>
       <c r="AE2">
         <f>'India Data'!AK85</f>
-        <v>0.14872276791919353</v>
+        <v>0.29707472652460454</v>
       </c>
       <c r="AF2">
         <f>'India Data'!AL85</f>
-        <v>0.14905110110344516</v>
+        <v>0.29782671543047118</v>
       </c>
       <c r="AG2">
         <f>'India Data'!AM85</f>
-        <v>0.14929554807660333</v>
+        <v>0.29838657785286571</v>
       </c>
       <c r="AH2">
         <f>'India Data'!AN85</f>
-        <v>0.14947730824504057</v>
+        <v>0.29880286727089939</v>
       </c>
       <c r="AI2">
         <f>'India Data'!AO85</f>
-        <v>0.14961232865051319</v>
+        <v>0.29911210755440121</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -10704,135 +10703,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I89</f>
-        <v>1.488022930055813E-3</v>
+        <v>2.9760458601116261E-3</v>
       </c>
       <c r="D6">
         <f>'India Data'!J89</f>
-        <v>1.9947745182649396E-3</v>
+        <v>3.9895490365298792E-3</v>
       </c>
       <c r="E6">
         <f>'India Data'!K89</f>
-        <v>2.6678391954477131E-3</v>
+        <v>5.3356783908954262E-3</v>
       </c>
       <c r="F6">
         <f>'India Data'!L89</f>
-        <v>3.5569404883175086E-3</v>
+        <v>7.1138809766350172E-3</v>
       </c>
       <c r="G6">
         <f>'India Data'!M89</f>
-        <v>4.7230017042747376E-3</v>
+        <v>9.4460034085494752E-3</v>
       </c>
       <c r="H6">
         <f>'India Data'!N89</f>
-        <v>6.2379522370441774E-3</v>
+        <v>1.2475904474088355E-2</v>
       </c>
       <c r="I6">
         <f>'India Data'!O89</f>
-        <v>8.182261589670968E-3</v>
+        <v>1.6364523179341936E-2</v>
       </c>
       <c r="J6">
         <f>'India Data'!P89</f>
-        <v>1.0638829867536587E-2</v>
+        <v>2.1277659735073173E-2</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q89</f>
-        <v>1.3681914285476725E-2</v>
+        <v>2.7363828570953451E-2</v>
       </c>
       <c r="L6">
         <f>'India Data'!R89</f>
-        <v>1.7360641237573676E-2</v>
+        <v>3.4721282475147351E-2</v>
       </c>
       <c r="M6">
         <f>'India Data'!S89</f>
-        <v>2.1678787303124704E-2</v>
+        <v>4.3357574606249408E-2</v>
       </c>
       <c r="N6">
         <f>'India Data'!T89</f>
-        <v>2.657577703306534E-2</v>
+        <v>5.3151554066130681E-2</v>
       </c>
       <c r="O6">
         <f>'India Data'!U89</f>
-        <v>3.1916811239125577E-2</v>
+        <v>6.3833622478251154E-2</v>
       </c>
       <c r="P6">
         <f>'India Data'!V89</f>
-        <v>3.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W89</f>
-        <v>4.3083188760874427E-2</v>
+        <v>8.6166377521748855E-2</v>
       </c>
       <c r="R6">
         <f>'India Data'!X89</f>
-        <v>4.8424222966934653E-2</v>
+        <v>9.6848445933869307E-2</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y89</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0.10664242539375059</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z89</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0.11527871752485264</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA89</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0.12263617142904654</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB89</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0.12872234026492685</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC89</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0.13363547682065807</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD89</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0.13752409552591163</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE89</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0.14055399659145051</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF89</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0.14288611902336498</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG89</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0.14466432160910458</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH89</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0.1460104509634701</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI89</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0.14702395413988836</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ89</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0.14778389524600904</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK89</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0.14835195860541103</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL89</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0.14877561432702602</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM89</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0.14909102977626237</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN89</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0.14932555902585881</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO89</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0.14949977890388799</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
@@ -11745,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13079,7 +13078,6 @@
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <f>E8*'India Assumptions'!$A$31</f>
         <v>0.15</v>
       </c>
       <c r="F15" s="15" t="str">
@@ -13231,157 +13229,157 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10">
-        <f>'SYVbT-freight'!C$2/SUM('SYVbT-freight'!B$2:H$2)</f>
-        <v>0</v>
+      <c r="D16" s="4">
+        <f>D9</f>
+        <v>2.6163522012578631E-2</v>
       </c>
       <c r="E16" s="10">
         <f>MIN(1,D16*'India Assumptions'!$A$10)</f>
-        <v>0</v>
+        <v>1.3081761006289315E-2</v>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>n/a</v>
+        <v>linear</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.6163522012578631E-2</v>
       </c>
       <c r="I16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,I$7))</f>
-        <v>0</v>
+        <v>2.5778764335922966E-2</v>
       </c>
       <c r="J16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>2.5394006659267387E-2</v>
       </c>
       <c r="K16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>2.5009248982611809E-2</v>
       </c>
       <c r="L16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>2.4624491305956231E-2</v>
       </c>
       <c r="M16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>2.4239733629300764E-2</v>
       </c>
       <c r="N16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>2.3854975952645185E-2</v>
       </c>
       <c r="O16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>2.3470218275989607E-2</v>
       </c>
       <c r="P16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>2.3085460599334029E-2</v>
       </c>
       <c r="Q16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>2.2700702922678451E-2</v>
       </c>
       <c r="R16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>2.2315945246022872E-2</v>
       </c>
       <c r="S16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>2.1931187569367294E-2</v>
       </c>
       <c r="T16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>2.1546429892711716E-2</v>
       </c>
       <c r="U16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>2.1161672216056138E-2</v>
       </c>
       <c r="V16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>2.0776914539400559E-2</v>
       </c>
       <c r="W16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>2.0392156862744981E-2</v>
       </c>
       <c r="X16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>2.0007399186089514E-2</v>
       </c>
       <c r="Y16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>1.9622641509433936E-2</v>
       </c>
       <c r="Z16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>1.9237883832778357E-2</v>
       </c>
       <c r="AA16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>1.8853126156122779E-2</v>
       </c>
       <c r="AB16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>1.8468368479467201E-2</v>
       </c>
       <c r="AC16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>1.8083610802811623E-2</v>
       </c>
       <c r="AD16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>1.7698853126156044E-2</v>
       </c>
       <c r="AE16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>1.7314095449500466E-2</v>
       </c>
       <c r="AF16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>1.6929337772844888E-2</v>
       </c>
       <c r="AG16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>1.654458009618931E-2</v>
       </c>
       <c r="AH16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>1.6159822419533731E-2</v>
       </c>
       <c r="AI16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>1.5775064742878264E-2</v>
       </c>
       <c r="AJ16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>1.5390307066222686E-2</v>
       </c>
       <c r="AK16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>1.5005549389567108E-2</v>
       </c>
       <c r="AL16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>1.4620791712911529E-2</v>
       </c>
       <c r="AM16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>1.4236034036255951E-2</v>
       </c>
       <c r="AN16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>1.3851276359600373E-2</v>
       </c>
       <c r="AO16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>1.3466518682944795E-2</v>
       </c>
       <c r="AP16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>1.3081761006289216E-2</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.45">
@@ -13707,12 +13705,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f>E15*'India Assumptions'!$A$36</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="3"/>
@@ -13720,139 +13717,139 @@
       </c>
       <c r="I19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,I$7))</f>
-        <v>1.488022930055813E-3</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,J$7))</f>
-        <v>1.9947745182649396E-3</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,K$7))</f>
-        <v>2.6678391954477131E-3</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,L$7))</f>
-        <v>3.5569404883175086E-3</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,M$7))</f>
-        <v>4.7230017042747376E-3</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,N$7))</f>
-        <v>6.2379522370441774E-3</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,O$7))</f>
-        <v>8.182261589670968E-3</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,P$7))</f>
-        <v>1.0638829867536587E-2</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Q$7))</f>
-        <v>1.3681914285476725E-2</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,R$7))</f>
-        <v>1.7360641237573676E-2</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,S$7))</f>
-        <v>2.1678787303124704E-2</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,T$7))</f>
-        <v>2.657577703306534E-2</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,U$7))</f>
-        <v>3.1916811239125577E-2</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,V$7))</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,W$7))</f>
-        <v>4.3083188760874427E-2</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,X$7))</f>
-        <v>4.8424222966934653E-2</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Y$7))</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Z$7))</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AA$7))</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AB$7))</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AC$7))</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0</v>
       </c>
       <c r="AD19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AD$7))</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AE$7))</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0</v>
       </c>
       <c r="AF19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AF$7))</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AG$7))</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AH$7))</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AI$7))</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AJ$7))</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AK$7))</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AL$7))</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AM$7))</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0</v>
       </c>
       <c r="AN19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AN$7))</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AO$7))</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AP$7))</f>
-        <v>7.4814553263252398E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
@@ -14815,12 +14812,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="10">
-        <f>E22*'India Assumptions'!$A$36</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="3"/>
@@ -14828,139 +14824,139 @@
       </c>
       <c r="I26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,I$7))</f>
-        <v>5.9520917202232522E-3</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,J$7))</f>
-        <v>7.9790980730597583E-3</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,K$7))</f>
-        <v>1.0671356781790852E-2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,L$7))</f>
-        <v>1.4227761953270034E-2</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,M$7))</f>
-        <v>1.889200681709895E-2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,N$7))</f>
-        <v>2.495180894817671E-2</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,O$7))</f>
-        <v>3.2729046358683872E-2</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,P$7))</f>
-        <v>4.2555319470146347E-2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Q$7))</f>
-        <v>5.4727657141906902E-2</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,R$7))</f>
-        <v>6.9442564950294702E-2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,S$7))</f>
-        <v>8.6715149212498815E-2</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,T$7))</f>
-        <v>0.10630310813226136</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,U$7))</f>
-        <v>0.12766724495650231</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,V$7))</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,W$7))</f>
-        <v>0.17233275504349771</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,X$7))</f>
-        <v>0.19369689186773861</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Y$7))</f>
-        <v>0.21328485078750117</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Z$7))</f>
-        <v>0.23055743504970527</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AA$7))</f>
-        <v>0.24527234285809307</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AB$7))</f>
-        <v>0.2574446805298537</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AC$7))</f>
-        <v>0.26727095364131614</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AD$7))</f>
-        <v>0.27504819105182327</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AE$7))</f>
-        <v>0.28110799318290103</v>
+        <v>0</v>
       </c>
       <c r="AF26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AF$7))</f>
-        <v>0.28577223804672996</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AG$7))</f>
-        <v>0.28932864321820917</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AH$7))</f>
-        <v>0.29202090192694019</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AI$7))</f>
-        <v>0.29404790827977673</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AJ$7))</f>
-        <v>0.29556779049201809</v>
+        <v>0</v>
       </c>
       <c r="AK26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AK$7))</f>
-        <v>0.29670391721082207</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AL$7))</f>
-        <v>0.29755122865405204</v>
+        <v>0</v>
       </c>
       <c r="AM26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AM$7))</f>
-        <v>0.29818205955252475</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AN$7))</f>
-        <v>0.29865111805171762</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AO$7))</f>
-        <v>0.29899955780777598</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AP$7))</f>
-        <v>0.29925821305300959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.45">
@@ -15294,7 +15290,6 @@
         <v>0</v>
       </c>
       <c r="E29" s="10">
-        <f>E22*'India Assumptions'!$A$31</f>
         <v>0.15</v>
       </c>
       <c r="F29" s="15" t="str">
@@ -15922,12 +15917,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="10">
-        <f>E29*'India Assumptions'!$A$36</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="3"/>
@@ -15935,139 +15929,139 @@
       </c>
       <c r="I33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,I$7))</f>
-        <v>1.488022930055813E-3</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,J$7))</f>
-        <v>1.9947745182649396E-3</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,K$7))</f>
-        <v>2.6678391954477131E-3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,L$7))</f>
-        <v>3.5569404883175086E-3</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,M$7))</f>
-        <v>4.7230017042747376E-3</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,N$7))</f>
-        <v>6.2379522370441774E-3</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,O$7))</f>
-        <v>8.182261589670968E-3</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,P$7))</f>
-        <v>1.0638829867536587E-2</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Q$7))</f>
-        <v>1.3681914285476725E-2</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,R$7))</f>
-        <v>1.7360641237573676E-2</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,S$7))</f>
-        <v>2.1678787303124704E-2</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,T$7))</f>
-        <v>2.657577703306534E-2</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,U$7))</f>
-        <v>3.1916811239125577E-2</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,V$7))</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,W$7))</f>
-        <v>4.3083188760874427E-2</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,X$7))</f>
-        <v>4.8424222966934653E-2</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Y$7))</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Z$7))</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AA$7))</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AB$7))</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AC$7))</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AD$7))</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AE$7))</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0</v>
       </c>
       <c r="AF33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AF$7))</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AG$7))</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AH$7))</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AI$7))</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AJ$7))</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0</v>
       </c>
       <c r="AK33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AK$7))</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AL$7))</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AM$7))</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0</v>
       </c>
       <c r="AN33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AN$7))</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0</v>
       </c>
       <c r="AO33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AO$7))</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AP$7))</f>
-        <v>7.4814553263252398E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.45">
@@ -24099,8 +24093,7 @@
         <v>3.3749999999999995E-2</v>
       </c>
       <c r="E85" s="10">
-        <f>E78*'India Assumptions'!$A$31</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F85" s="15" t="str">
         <f t="shared" ref="F85:F91" si="10">IF(D85=E85,"n/a",IF(OR(C85="battery electric vehicle",C85="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -24112,139 +24105,139 @@
       </c>
       <c r="I85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,I$7))</f>
-        <v>3.6056435541586503E-2</v>
+        <v>3.9032481401698134E-2</v>
       </c>
       <c r="J85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,J$7))</f>
-        <v>3.6841900503310654E-2</v>
+        <v>4.0831449539840532E-2</v>
       </c>
       <c r="K85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,K$7))</f>
-        <v>3.788515075294395E-2</v>
+        <v>4.3220829143839373E-2</v>
       </c>
       <c r="L85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,L$7))</f>
-        <v>3.9263257756892135E-2</v>
+        <v>4.6377138733527154E-2</v>
       </c>
       <c r="M85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,M$7))</f>
-        <v>4.1070652641625835E-2</v>
+        <v>5.0516656050175315E-2</v>
       </c>
       <c r="N85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,N$7))</f>
-        <v>4.3418825967418473E-2</v>
+        <v>5.5894730441506828E-2</v>
       </c>
       <c r="O85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,O$7))</f>
-        <v>4.6432505463989998E-2</v>
+        <v>6.2797028643331934E-2</v>
       </c>
       <c r="P85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,P$7))</f>
-        <v>5.0240186294681702E-2</v>
+        <v>7.1517846029754875E-2</v>
       </c>
       <c r="Q85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Q$7))</f>
-        <v>5.4956967142488919E-2</v>
+        <v>8.2320795713442363E-2</v>
       </c>
       <c r="R85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,R$7))</f>
-        <v>6.0658993918239194E-2</v>
+        <v>9.5380276393386546E-2</v>
       </c>
       <c r="S85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,S$7))</f>
-        <v>6.7352120319843278E-2</v>
+        <v>0.1107096949260927</v>
       </c>
       <c r="T85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,T$7))</f>
-        <v>7.4942454401251274E-2</v>
+        <v>0.12809400846738195</v>
       </c>
       <c r="U85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,U$7))</f>
-        <v>8.3221057420644631E-2</v>
+        <v>0.14705467989889578</v>
       </c>
       <c r="V85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,V$7))</f>
-        <v>9.1874999999999984E-2</v>
+        <v>0.166875</v>
       </c>
       <c r="W85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,W$7))</f>
-        <v>0.10052894257935535</v>
+        <v>0.18669532010110421</v>
       </c>
       <c r="X85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,X$7))</f>
-        <v>0.1088075455987487</v>
+        <v>0.20565599153261802</v>
       </c>
       <c r="Y85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Y$7))</f>
-        <v>0.11639787968015669</v>
+        <v>0.22304030507390729</v>
       </c>
       <c r="Z85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Z$7))</f>
-        <v>0.1230910060817608</v>
+        <v>0.23836972360661343</v>
       </c>
       <c r="AA85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AA$7))</f>
-        <v>0.12879303285751106</v>
+        <v>0.25142920428655757</v>
       </c>
       <c r="AB85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AB$7))</f>
-        <v>0.13350981370531828</v>
+        <v>0.26223215397024513</v>
       </c>
       <c r="AC85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AC$7))</f>
-        <v>0.13731749453601</v>
+        <v>0.27095297135666802</v>
       </c>
       <c r="AD85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AD$7))</f>
-        <v>0.14033117403258152</v>
+        <v>0.27785526955849316</v>
       </c>
       <c r="AE85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AE$7))</f>
-        <v>0.14267934735837415</v>
+        <v>0.28323334394982469</v>
       </c>
       <c r="AF85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AF$7))</f>
-        <v>0.14448674224310787</v>
+        <v>0.28737286126647288</v>
       </c>
       <c r="AG85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AG$7))</f>
-        <v>0.14586484924705603</v>
+        <v>0.29052917085616059</v>
       </c>
       <c r="AH85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AH$7))</f>
-        <v>0.14690809949668931</v>
+        <v>0.29291855046015941</v>
       </c>
       <c r="AI85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AI$7))</f>
-        <v>0.14769356445841347</v>
+        <v>0.29471751859830186</v>
       </c>
       <c r="AJ85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AJ$7))</f>
-        <v>0.14828251881565699</v>
+        <v>0.29606641406166606</v>
       </c>
       <c r="AK85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AK$7))</f>
-        <v>0.14872276791919353</v>
+        <v>0.29707472652460454</v>
       </c>
       <c r="AL85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AL$7))</f>
-        <v>0.14905110110344516</v>
+        <v>0.29782671543047118</v>
       </c>
       <c r="AM85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AM$7))</f>
-        <v>0.14929554807660333</v>
+        <v>0.29838657785286571</v>
       </c>
       <c r="AN85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AN$7))</f>
-        <v>0.14947730824504057</v>
+        <v>0.29880286727089939</v>
       </c>
       <c r="AO85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AO$7))</f>
-        <v>0.14961232865051319</v>
+        <v>0.29911210755440121</v>
       </c>
       <c r="AP85">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AP$7))</f>
-        <v>0.14971255755804119</v>
+        <v>0.29934166408454599</v>
       </c>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.45">
@@ -24728,7 +24721,7 @@
       </c>
       <c r="E89" s="10">
         <f>E85*'India Assumptions'!$A$36</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F89" s="15" t="str">
         <f t="shared" si="10"/>
@@ -24740,139 +24733,139 @@
       </c>
       <c r="I89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,I$7))</f>
-        <v>1.488022930055813E-3</v>
+        <v>2.9760458601116261E-3</v>
       </c>
       <c r="J89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,J$7))</f>
-        <v>1.9947745182649396E-3</v>
+        <v>3.9895490365298792E-3</v>
       </c>
       <c r="K89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,K$7))</f>
-        <v>2.6678391954477131E-3</v>
+        <v>5.3356783908954262E-3</v>
       </c>
       <c r="L89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,L$7))</f>
-        <v>3.5569404883175086E-3</v>
+        <v>7.1138809766350172E-3</v>
       </c>
       <c r="M89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,M$7))</f>
-        <v>4.7230017042747376E-3</v>
+        <v>9.4460034085494752E-3</v>
       </c>
       <c r="N89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,N$7))</f>
-        <v>6.2379522370441774E-3</v>
+        <v>1.2475904474088355E-2</v>
       </c>
       <c r="O89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,O$7))</f>
-        <v>8.182261589670968E-3</v>
+        <v>1.6364523179341936E-2</v>
       </c>
       <c r="P89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,P$7))</f>
-        <v>1.0638829867536587E-2</v>
+        <v>2.1277659735073173E-2</v>
       </c>
       <c r="Q89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Q$7))</f>
-        <v>1.3681914285476725E-2</v>
+        <v>2.7363828570953451E-2</v>
       </c>
       <c r="R89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,R$7))</f>
-        <v>1.7360641237573676E-2</v>
+        <v>3.4721282475147351E-2</v>
       </c>
       <c r="S89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,S$7))</f>
-        <v>2.1678787303124704E-2</v>
+        <v>4.3357574606249408E-2</v>
       </c>
       <c r="T89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,T$7))</f>
-        <v>2.657577703306534E-2</v>
+        <v>5.3151554066130681E-2</v>
       </c>
       <c r="U89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,U$7))</f>
-        <v>3.1916811239125577E-2</v>
+        <v>6.3833622478251154E-2</v>
       </c>
       <c r="V89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,V$7))</f>
-        <v>3.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="W89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,W$7))</f>
-        <v>4.3083188760874427E-2</v>
+        <v>8.6166377521748855E-2</v>
       </c>
       <c r="X89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,X$7))</f>
-        <v>4.8424222966934653E-2</v>
+        <v>9.6848445933869307E-2</v>
       </c>
       <c r="Y89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Y$7))</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0.10664242539375059</v>
       </c>
       <c r="Z89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Z$7))</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0.11527871752485264</v>
       </c>
       <c r="AA89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AA$7))</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0.12263617142904654</v>
       </c>
       <c r="AB89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AB$7))</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0.12872234026492685</v>
       </c>
       <c r="AC89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AC$7))</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0.13363547682065807</v>
       </c>
       <c r="AD89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AD$7))</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0.13752409552591163</v>
       </c>
       <c r="AE89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AE$7))</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0.14055399659145051</v>
       </c>
       <c r="AF89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AF$7))</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0.14288611902336498</v>
       </c>
       <c r="AG89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AG$7))</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0.14466432160910458</v>
       </c>
       <c r="AH89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AH$7))</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0.1460104509634701</v>
       </c>
       <c r="AI89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AI$7))</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0.14702395413988836</v>
       </c>
       <c r="AJ89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AJ$7))</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0.14778389524600904</v>
       </c>
       <c r="AK89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AK$7))</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0.14835195860541103</v>
       </c>
       <c r="AL89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AL$7))</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0.14877561432702602</v>
       </c>
       <c r="AM89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AM$7))</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0.14909102977626237</v>
       </c>
       <c r="AN89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AN$7))</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0.14932555902585881</v>
       </c>
       <c r="AO89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AO$7))</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0.14949977890388799</v>
       </c>
       <c r="AP89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AP$7))</f>
-        <v>7.4814553263252398E-2</v>
+        <v>0.1496291065265048</v>
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.45">
@@ -26586,139 +26579,139 @@
       </c>
       <c r="B3">
         <f>'India Data'!H16</f>
-        <v>0</v>
+        <v>2.6163522012578631E-2</v>
       </c>
       <c r="C3">
         <f>'India Data'!I16</f>
-        <v>0</v>
+        <v>2.5778764335922966E-2</v>
       </c>
       <c r="D3">
         <f>'India Data'!J16</f>
-        <v>0</v>
+        <v>2.5394006659267387E-2</v>
       </c>
       <c r="E3">
         <f>'India Data'!K16</f>
-        <v>0</v>
+        <v>2.5009248982611809E-2</v>
       </c>
       <c r="F3">
         <f>'India Data'!L16</f>
-        <v>0</v>
+        <v>2.4624491305956231E-2</v>
       </c>
       <c r="G3">
         <f>'India Data'!M16</f>
-        <v>0</v>
+        <v>2.4239733629300764E-2</v>
       </c>
       <c r="H3">
         <f>'India Data'!N16</f>
-        <v>0</v>
+        <v>2.3854975952645185E-2</v>
       </c>
       <c r="I3">
         <f>'India Data'!O16</f>
-        <v>0</v>
+        <v>2.3470218275989607E-2</v>
       </c>
       <c r="J3">
         <f>'India Data'!P16</f>
-        <v>0</v>
+        <v>2.3085460599334029E-2</v>
       </c>
       <c r="K3">
         <f>'India Data'!Q16</f>
-        <v>0</v>
+        <v>2.2700702922678451E-2</v>
       </c>
       <c r="L3">
         <f>'India Data'!R16</f>
-        <v>0</v>
+        <v>2.2315945246022872E-2</v>
       </c>
       <c r="M3">
         <f>'India Data'!S16</f>
-        <v>0</v>
+        <v>2.1931187569367294E-2</v>
       </c>
       <c r="N3">
         <f>'India Data'!T16</f>
-        <v>0</v>
+        <v>2.1546429892711716E-2</v>
       </c>
       <c r="O3">
         <f>'India Data'!U16</f>
-        <v>0</v>
+        <v>2.1161672216056138E-2</v>
       </c>
       <c r="P3">
         <f>'India Data'!V16</f>
-        <v>0</v>
+        <v>2.0776914539400559E-2</v>
       </c>
       <c r="Q3">
         <f>'India Data'!W16</f>
-        <v>0</v>
+        <v>2.0392156862744981E-2</v>
       </c>
       <c r="R3">
         <f>'India Data'!X16</f>
-        <v>0</v>
+        <v>2.0007399186089514E-2</v>
       </c>
       <c r="S3">
         <f>'India Data'!Y16</f>
-        <v>0</v>
+        <v>1.9622641509433936E-2</v>
       </c>
       <c r="T3">
         <f>'India Data'!Z16</f>
-        <v>0</v>
+        <v>1.9237883832778357E-2</v>
       </c>
       <c r="U3">
         <f>'India Data'!AA16</f>
-        <v>0</v>
+        <v>1.8853126156122779E-2</v>
       </c>
       <c r="V3">
         <f>'India Data'!AB16</f>
-        <v>0</v>
+        <v>1.8468368479467201E-2</v>
       </c>
       <c r="W3">
         <f>'India Data'!AC16</f>
-        <v>0</v>
+        <v>1.8083610802811623E-2</v>
       </c>
       <c r="X3">
         <f>'India Data'!AD16</f>
-        <v>0</v>
+        <v>1.7698853126156044E-2</v>
       </c>
       <c r="Y3">
         <f>'India Data'!AE16</f>
-        <v>0</v>
+        <v>1.7314095449500466E-2</v>
       </c>
       <c r="Z3">
         <f>'India Data'!AF16</f>
-        <v>0</v>
+        <v>1.6929337772844888E-2</v>
       </c>
       <c r="AA3">
         <f>'India Data'!AG16</f>
-        <v>0</v>
+        <v>1.654458009618931E-2</v>
       </c>
       <c r="AB3">
         <f>'India Data'!AH16</f>
-        <v>0</v>
+        <v>1.6159822419533731E-2</v>
       </c>
       <c r="AC3">
         <f>'India Data'!AI16</f>
-        <v>0</v>
+        <v>1.5775064742878264E-2</v>
       </c>
       <c r="AD3">
         <f>'India Data'!AJ16</f>
-        <v>0</v>
+        <v>1.5390307066222686E-2</v>
       </c>
       <c r="AE3">
         <f>'India Data'!AK16</f>
-        <v>0</v>
+        <v>1.5005549389567108E-2</v>
       </c>
       <c r="AF3">
         <f>'India Data'!AL16</f>
-        <v>0</v>
+        <v>1.4620791712911529E-2</v>
       </c>
       <c r="AG3">
         <f>'India Data'!AM16</f>
-        <v>0</v>
+        <v>1.4236034036255951E-2</v>
       </c>
       <c r="AH3">
         <f>'India Data'!AN16</f>
-        <v>0</v>
+        <v>1.3851276359600373E-2</v>
       </c>
       <c r="AI3">
         <f>'India Data'!AO16</f>
-        <v>0</v>
+        <v>1.3466518682944795E-2</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -27013,135 +27006,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I19</f>
-        <v>1.488022930055813E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'India Data'!J19</f>
-        <v>1.9947745182649396E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>'India Data'!K19</f>
-        <v>2.6678391954477131E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>'India Data'!L19</f>
-        <v>3.5569404883175086E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'India Data'!M19</f>
-        <v>4.7230017042747376E-3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>'India Data'!N19</f>
-        <v>6.2379522370441774E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>'India Data'!O19</f>
-        <v>8.182261589670968E-3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>'India Data'!P19</f>
-        <v>1.0638829867536587E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q19</f>
-        <v>1.3681914285476725E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>'India Data'!R19</f>
-        <v>1.7360641237573676E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>'India Data'!S19</f>
-        <v>2.1678787303124704E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>'India Data'!T19</f>
-        <v>2.657577703306534E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>'India Data'!U19</f>
-        <v>3.1916811239125577E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>'India Data'!V19</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W19</f>
-        <v>4.3083188760874427E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>'India Data'!X19</f>
-        <v>4.8424222966934653E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y19</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z19</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA19</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB19</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC19</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD19</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE19</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF19</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG19</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH19</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI19</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ19</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK19</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL19</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM19</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN19</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO19</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
@@ -28128,135 +28121,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I26</f>
-        <v>5.9520917202232522E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'India Data'!J26</f>
-        <v>7.9790980730597583E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>'India Data'!K26</f>
-        <v>1.0671356781790852E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>'India Data'!L26</f>
-        <v>1.4227761953270034E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'India Data'!M26</f>
-        <v>1.889200681709895E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>'India Data'!N26</f>
-        <v>2.495180894817671E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>'India Data'!O26</f>
-        <v>3.2729046358683872E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>'India Data'!P26</f>
-        <v>4.2555319470146347E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q26</f>
-        <v>5.4727657141906902E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>'India Data'!R26</f>
-        <v>6.9442564950294702E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>'India Data'!S26</f>
-        <v>8.6715149212498815E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>'India Data'!T26</f>
-        <v>0.10630310813226136</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>'India Data'!U26</f>
-        <v>0.12766724495650231</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>'India Data'!V26</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W26</f>
-        <v>0.17233275504349771</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>'India Data'!X26</f>
-        <v>0.19369689186773861</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y26</f>
-        <v>0.21328485078750117</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z26</f>
-        <v>0.23055743504970527</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA26</f>
-        <v>0.24527234285809307</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB26</f>
-        <v>0.2574446805298537</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC26</f>
-        <v>0.26727095364131614</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD26</f>
-        <v>0.27504819105182327</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE26</f>
-        <v>0.28110799318290103</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF26</f>
-        <v>0.28577223804672996</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG26</f>
-        <v>0.28932864321820917</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH26</f>
-        <v>0.29202090192694019</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI26</f>
-        <v>0.29404790827977673</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ26</f>
-        <v>0.29556779049201809</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK26</f>
-        <v>0.29670391721082207</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL26</f>
-        <v>0.29755122865405204</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM26</f>
-        <v>0.29818205955252475</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN26</f>
-        <v>0.29865111805171762</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO26</f>
-        <v>0.29899955780777598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
@@ -29241,135 +29234,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I33</f>
-        <v>1.488022930055813E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'India Data'!J33</f>
-        <v>1.9947745182649396E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>'India Data'!K33</f>
-        <v>2.6678391954477131E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>'India Data'!L33</f>
-        <v>3.5569404883175086E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'India Data'!M33</f>
-        <v>4.7230017042747376E-3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>'India Data'!N33</f>
-        <v>6.2379522370441774E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>'India Data'!O33</f>
-        <v>8.182261589670968E-3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>'India Data'!P33</f>
-        <v>1.0638829867536587E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q33</f>
-        <v>1.3681914285476725E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>'India Data'!R33</f>
-        <v>1.7360641237573676E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>'India Data'!S33</f>
-        <v>2.1678787303124704E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>'India Data'!T33</f>
-        <v>2.657577703306534E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>'India Data'!U33</f>
-        <v>3.1916811239125577E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>'India Data'!V33</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W33</f>
-        <v>4.3083188760874427E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>'India Data'!X33</f>
-        <v>4.8424222966934653E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y33</f>
-        <v>5.3321212696875293E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z33</f>
-        <v>5.7639358762426318E-2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA33</f>
-        <v>6.1318085714523268E-2</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB33</f>
-        <v>6.4361170132463424E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC33</f>
-        <v>6.6817738410329036E-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD33</f>
-        <v>6.8762047762955816E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE33</f>
-        <v>7.0276998295725257E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF33</f>
-        <v>7.1443059511682491E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG33</f>
-        <v>7.2332160804552292E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH33</f>
-        <v>7.3005225481735048E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI33</f>
-        <v>7.3511977069944182E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ33</f>
-        <v>7.3891947623004522E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK33</f>
-        <v>7.4175979302705516E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL33</f>
-        <v>7.4387807163513009E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM33</f>
-        <v>7.4545514888131187E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN33</f>
-        <v>7.4662779512929406E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO33</f>
-        <v>7.4749889451943996E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -678,6 +678,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10703,135 +10704,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I89</f>
-        <v>2.9760458601116261E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'India Data'!J89</f>
-        <v>3.9895490365298792E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>'India Data'!K89</f>
-        <v>5.3356783908954262E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>'India Data'!L89</f>
-        <v>7.1138809766350172E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'India Data'!M89</f>
-        <v>9.4460034085494752E-3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>'India Data'!N89</f>
-        <v>1.2475904474088355E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>'India Data'!O89</f>
-        <v>1.6364523179341936E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>'India Data'!P89</f>
-        <v>2.1277659735073173E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q89</f>
-        <v>2.7363828570953451E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>'India Data'!R89</f>
-        <v>3.4721282475147351E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>'India Data'!S89</f>
-        <v>4.3357574606249408E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>'India Data'!T89</f>
-        <v>5.3151554066130681E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>'India Data'!U89</f>
-        <v>6.3833622478251154E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>'India Data'!V89</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W89</f>
-        <v>8.6166377521748855E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>'India Data'!X89</f>
-        <v>9.6848445933869307E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y89</f>
-        <v>0.10664242539375059</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z89</f>
-        <v>0.11527871752485264</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA89</f>
-        <v>0.12263617142904654</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB89</f>
-        <v>0.12872234026492685</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC89</f>
-        <v>0.13363547682065807</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD89</f>
-        <v>0.13752409552591163</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE89</f>
-        <v>0.14055399659145051</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF89</f>
-        <v>0.14288611902336498</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG89</f>
-        <v>0.14466432160910458</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH89</f>
-        <v>0.1460104509634701</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI89</f>
-        <v>0.14702395413988836</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ89</f>
-        <v>0.14778389524600904</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK89</f>
-        <v>0.14835195860541103</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL89</f>
-        <v>0.14877561432702602</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM89</f>
-        <v>0.14909102977626237</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN89</f>
-        <v>0.14932555902585881</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO89</f>
-        <v>0.14949977890388799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
@@ -11744,8 +11745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15290,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="15" t="str">
         <f t="shared" si="4"/>
@@ -15302,139 +15303,139 @@
       </c>
       <c r="I29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,I$7))</f>
-        <v>2.9760458601116261E-3</v>
+        <v>7.9361222936310042E-4</v>
       </c>
       <c r="J29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,J$7))</f>
-        <v>3.9895490365298792E-3</v>
+        <v>1.0638797430746346E-3</v>
       </c>
       <c r="K29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,K$7))</f>
-        <v>5.3356783908954262E-3</v>
+        <v>1.4228475709054471E-3</v>
       </c>
       <c r="L29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,L$7))</f>
-        <v>7.1138809766350172E-3</v>
+        <v>1.8970349271026712E-3</v>
       </c>
       <c r="M29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,M$7))</f>
-        <v>9.4460034085494752E-3</v>
+        <v>2.5189342422798603E-3</v>
       </c>
       <c r="N29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,N$7))</f>
-        <v>1.2475904474088355E-2</v>
+        <v>3.3269078597568951E-3</v>
       </c>
       <c r="O29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,O$7))</f>
-        <v>1.6364523179341936E-2</v>
+        <v>4.3638728478245167E-3</v>
       </c>
       <c r="P29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,P$7))</f>
-        <v>2.1277659735073173E-2</v>
+        <v>5.6740425960195131E-3</v>
       </c>
       <c r="Q29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Q$7))</f>
-        <v>2.7363828570953451E-2</v>
+        <v>7.2970209522542542E-3</v>
       </c>
       <c r="R29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,R$7))</f>
-        <v>3.4721282475147351E-2</v>
+        <v>9.2590086600392949E-3</v>
       </c>
       <c r="S29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,S$7))</f>
-        <v>4.3357574606249408E-2</v>
+        <v>1.1562019894999843E-2</v>
       </c>
       <c r="T29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,T$7))</f>
-        <v>5.3151554066130681E-2</v>
+        <v>1.4173747750968182E-2</v>
       </c>
       <c r="U29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,U$7))</f>
-        <v>6.3833622478251154E-2</v>
+        <v>1.702229932753364E-2</v>
       </c>
       <c r="V29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,V$7))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="W29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,W$7))</f>
-        <v>8.6166377521748855E-2</v>
+        <v>2.2977700672466361E-2</v>
       </c>
       <c r="X29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,X$7))</f>
-        <v>9.6848445933869307E-2</v>
+        <v>2.5826252249031817E-2</v>
       </c>
       <c r="Y29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Y$7))</f>
-        <v>0.10664242539375059</v>
+        <v>2.8437980105000156E-2</v>
       </c>
       <c r="Z29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Z$7))</f>
-        <v>0.11527871752485264</v>
+        <v>3.0740991339960704E-2</v>
       </c>
       <c r="AA29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AA$7))</f>
-        <v>0.12263617142904654</v>
+        <v>3.2702979047745745E-2</v>
       </c>
       <c r="AB29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AB$7))</f>
-        <v>0.12872234026492685</v>
+        <v>3.4325957403980492E-2</v>
       </c>
       <c r="AC29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AC$7))</f>
-        <v>0.13363547682065807</v>
+        <v>3.5636127152175484E-2</v>
       </c>
       <c r="AD29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AD$7))</f>
-        <v>0.13752409552591163</v>
+        <v>3.6673092140243106E-2</v>
       </c>
       <c r="AE29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AE$7))</f>
-        <v>0.14055399659145051</v>
+        <v>3.7481065757720144E-2</v>
       </c>
       <c r="AF29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AF$7))</f>
-        <v>0.14288611902336498</v>
+        <v>3.8102965072897337E-2</v>
       </c>
       <c r="AG29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AG$7))</f>
-        <v>0.14466432160910458</v>
+        <v>3.8577152429094555E-2</v>
       </c>
       <c r="AH29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AH$7))</f>
-        <v>0.1460104509634701</v>
+        <v>3.8936120256925361E-2</v>
       </c>
       <c r="AI29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AI$7))</f>
-        <v>0.14702395413988836</v>
+        <v>3.9206387770636904E-2</v>
       </c>
       <c r="AJ29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AJ$7))</f>
-        <v>0.14778389524600904</v>
+        <v>3.9409038732269079E-2</v>
       </c>
       <c r="AK29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AK$7))</f>
-        <v>0.14835195860541103</v>
+        <v>3.9560522294776274E-2</v>
       </c>
       <c r="AL29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AL$7))</f>
-        <v>0.14877561432702602</v>
+        <v>3.9673497153873603E-2</v>
       </c>
       <c r="AM29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AM$7))</f>
-        <v>0.14909102977626237</v>
+        <v>3.9757607940336635E-2</v>
       </c>
       <c r="AN29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AN$7))</f>
-        <v>0.14932555902585881</v>
+        <v>3.9820149073562357E-2</v>
       </c>
       <c r="AO29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AO$7))</f>
-        <v>0.14949977890388799</v>
+        <v>3.9866607707703471E-2</v>
       </c>
       <c r="AP29">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AP$7))</f>
-        <v>0.1496291065265048</v>
+        <v>3.9901095073734613E-2</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
@@ -24720,12 +24721,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="10">
-        <f>E85*'India Assumptions'!$A$36</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F89" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H89" s="10">
         <f t="shared" si="7"/>
@@ -24733,139 +24733,139 @@
       </c>
       <c r="I89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,I$7))</f>
-        <v>2.9760458601116261E-3</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,J$7))</f>
-        <v>3.9895490365298792E-3</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,K$7))</f>
-        <v>5.3356783908954262E-3</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,L$7))</f>
-        <v>7.1138809766350172E-3</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,M$7))</f>
-        <v>9.4460034085494752E-3</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,N$7))</f>
-        <v>1.2475904474088355E-2</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,O$7))</f>
-        <v>1.6364523179341936E-2</v>
+        <v>0</v>
       </c>
       <c r="P89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,P$7))</f>
-        <v>2.1277659735073173E-2</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Q$7))</f>
-        <v>2.7363828570953451E-2</v>
+        <v>0</v>
       </c>
       <c r="R89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,R$7))</f>
-        <v>3.4721282475147351E-2</v>
+        <v>0</v>
       </c>
       <c r="S89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,S$7))</f>
-        <v>4.3357574606249408E-2</v>
+        <v>0</v>
       </c>
       <c r="T89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,T$7))</f>
-        <v>5.3151554066130681E-2</v>
+        <v>0</v>
       </c>
       <c r="U89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,U$7))</f>
-        <v>6.3833622478251154E-2</v>
+        <v>0</v>
       </c>
       <c r="V89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,V$7))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="W89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,W$7))</f>
-        <v>8.6166377521748855E-2</v>
+        <v>0</v>
       </c>
       <c r="X89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,X$7))</f>
-        <v>9.6848445933869307E-2</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Y$7))</f>
-        <v>0.10664242539375059</v>
+        <v>0</v>
       </c>
       <c r="Z89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Z$7))</f>
-        <v>0.11527871752485264</v>
+        <v>0</v>
       </c>
       <c r="AA89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AA$7))</f>
-        <v>0.12263617142904654</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AB$7))</f>
-        <v>0.12872234026492685</v>
+        <v>0</v>
       </c>
       <c r="AC89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AC$7))</f>
-        <v>0.13363547682065807</v>
+        <v>0</v>
       </c>
       <c r="AD89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AD$7))</f>
-        <v>0.13752409552591163</v>
+        <v>0</v>
       </c>
       <c r="AE89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AE$7))</f>
-        <v>0.14055399659145051</v>
+        <v>0</v>
       </c>
       <c r="AF89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AF$7))</f>
-        <v>0.14288611902336498</v>
+        <v>0</v>
       </c>
       <c r="AG89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AG$7))</f>
-        <v>0.14466432160910458</v>
+        <v>0</v>
       </c>
       <c r="AH89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AH$7))</f>
-        <v>0.1460104509634701</v>
+        <v>0</v>
       </c>
       <c r="AI89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AI$7))</f>
-        <v>0.14702395413988836</v>
+        <v>0</v>
       </c>
       <c r="AJ89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AJ$7))</f>
-        <v>0.14778389524600904</v>
+        <v>0</v>
       </c>
       <c r="AK89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AK$7))</f>
-        <v>0.14835195860541103</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AL$7))</f>
-        <v>0.14877561432702602</v>
+        <v>0</v>
       </c>
       <c r="AM89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AM$7))</f>
-        <v>0.14909102977626237</v>
+        <v>0</v>
       </c>
       <c r="AN89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AN$7))</f>
-        <v>0.14932555902585881</v>
+        <v>0</v>
       </c>
       <c r="AO89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AO$7))</f>
-        <v>0.14949977890388799</v>
+        <v>0</v>
       </c>
       <c r="AP89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AP$7))</f>
-        <v>0.1496291065265048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.45">
@@ -28670,135 +28670,135 @@
       </c>
       <c r="C2">
         <f>'India Data'!I29</f>
-        <v>2.9760458601116261E-3</v>
+        <v>7.9361222936310042E-4</v>
       </c>
       <c r="D2">
         <f>'India Data'!J29</f>
-        <v>3.9895490365298792E-3</v>
+        <v>1.0638797430746346E-3</v>
       </c>
       <c r="E2">
         <f>'India Data'!K29</f>
-        <v>5.3356783908954262E-3</v>
+        <v>1.4228475709054471E-3</v>
       </c>
       <c r="F2">
         <f>'India Data'!L29</f>
-        <v>7.1138809766350172E-3</v>
+        <v>1.8970349271026712E-3</v>
       </c>
       <c r="G2">
         <f>'India Data'!M29</f>
-        <v>9.4460034085494752E-3</v>
+        <v>2.5189342422798603E-3</v>
       </c>
       <c r="H2">
         <f>'India Data'!N29</f>
-        <v>1.2475904474088355E-2</v>
+        <v>3.3269078597568951E-3</v>
       </c>
       <c r="I2">
         <f>'India Data'!O29</f>
-        <v>1.6364523179341936E-2</v>
+        <v>4.3638728478245167E-3</v>
       </c>
       <c r="J2">
         <f>'India Data'!P29</f>
-        <v>2.1277659735073173E-2</v>
+        <v>5.6740425960195131E-3</v>
       </c>
       <c r="K2">
         <f>'India Data'!Q29</f>
-        <v>2.7363828570953451E-2</v>
+        <v>7.2970209522542542E-3</v>
       </c>
       <c r="L2">
         <f>'India Data'!R29</f>
-        <v>3.4721282475147351E-2</v>
+        <v>9.2590086600392949E-3</v>
       </c>
       <c r="M2">
         <f>'India Data'!S29</f>
-        <v>4.3357574606249408E-2</v>
+        <v>1.1562019894999843E-2</v>
       </c>
       <c r="N2">
         <f>'India Data'!T29</f>
-        <v>5.3151554066130681E-2</v>
+        <v>1.4173747750968182E-2</v>
       </c>
       <c r="O2">
         <f>'India Data'!U29</f>
-        <v>6.3833622478251154E-2</v>
+        <v>1.702229932753364E-2</v>
       </c>
       <c r="P2">
         <f>'India Data'!V29</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Q2">
         <f>'India Data'!W29</f>
-        <v>8.6166377521748855E-2</v>
+        <v>2.2977700672466361E-2</v>
       </c>
       <c r="R2">
         <f>'India Data'!X29</f>
-        <v>9.6848445933869307E-2</v>
+        <v>2.5826252249031817E-2</v>
       </c>
       <c r="S2">
         <f>'India Data'!Y29</f>
-        <v>0.10664242539375059</v>
+        <v>2.8437980105000156E-2</v>
       </c>
       <c r="T2">
         <f>'India Data'!Z29</f>
-        <v>0.11527871752485264</v>
+        <v>3.0740991339960704E-2</v>
       </c>
       <c r="U2">
         <f>'India Data'!AA29</f>
-        <v>0.12263617142904654</v>
+        <v>3.2702979047745745E-2</v>
       </c>
       <c r="V2">
         <f>'India Data'!AB29</f>
-        <v>0.12872234026492685</v>
+        <v>3.4325957403980492E-2</v>
       </c>
       <c r="W2">
         <f>'India Data'!AC29</f>
-        <v>0.13363547682065807</v>
+        <v>3.5636127152175484E-2</v>
       </c>
       <c r="X2">
         <f>'India Data'!AD29</f>
-        <v>0.13752409552591163</v>
+        <v>3.6673092140243106E-2</v>
       </c>
       <c r="Y2">
         <f>'India Data'!AE29</f>
-        <v>0.14055399659145051</v>
+        <v>3.7481065757720144E-2</v>
       </c>
       <c r="Z2">
         <f>'India Data'!AF29</f>
-        <v>0.14288611902336498</v>
+        <v>3.8102965072897337E-2</v>
       </c>
       <c r="AA2">
         <f>'India Data'!AG29</f>
-        <v>0.14466432160910458</v>
+        <v>3.8577152429094555E-2</v>
       </c>
       <c r="AB2">
         <f>'India Data'!AH29</f>
-        <v>0.1460104509634701</v>
+        <v>3.8936120256925361E-2</v>
       </c>
       <c r="AC2">
         <f>'India Data'!AI29</f>
-        <v>0.14702395413988836</v>
+        <v>3.9206387770636904E-2</v>
       </c>
       <c r="AD2">
         <f>'India Data'!AJ29</f>
-        <v>0.14778389524600904</v>
+        <v>3.9409038732269079E-2</v>
       </c>
       <c r="AE2">
         <f>'India Data'!AK29</f>
-        <v>0.14835195860541103</v>
+        <v>3.9560522294776274E-2</v>
       </c>
       <c r="AF2">
         <f>'India Data'!AL29</f>
-        <v>0.14877561432702602</v>
+        <v>3.9673497153873603E-2</v>
       </c>
       <c r="AG2">
         <f>'India Data'!AM29</f>
-        <v>0.14909102977626237</v>
+        <v>3.9757607940336635E-2</v>
       </c>
       <c r="AH2">
         <f>'India Data'!AN29</f>
-        <v>0.14932555902585881</v>
+        <v>3.9820149073562357E-2</v>
       </c>
       <c r="AI2">
         <f>'India Data'!AO29</f>
-        <v>0.14949977890388799</v>
+        <v>3.9866607707703471E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4960,135 +4959,135 @@
       </c>
       <c r="C5">
         <f>'India Data'!I53</f>
-        <v>0.50338235294117339</v>
+        <v>0.49226470588235305</v>
       </c>
       <c r="D5">
         <f>'India Data'!J53</f>
-        <v>0.51776470588234957</v>
+        <v>0.49552941176470622</v>
       </c>
       <c r="E5">
         <f>'India Data'!K53</f>
-        <v>0.53214705882352931</v>
+        <v>0.4987941176470585</v>
       </c>
       <c r="F5">
         <f>'India Data'!L53</f>
-        <v>0.54652941176470549</v>
+        <v>0.50205882352941167</v>
       </c>
       <c r="G5">
         <f>'India Data'!M53</f>
-        <v>0.56091176470588167</v>
+        <v>0.50532352941176484</v>
       </c>
       <c r="H5">
         <f>'India Data'!N53</f>
-        <v>0.57529411764705785</v>
+        <v>0.50858823529411801</v>
       </c>
       <c r="I5">
         <f>'India Data'!O53</f>
-        <v>0.58967647058823403</v>
+        <v>0.51185294117647029</v>
       </c>
       <c r="J5">
         <f>'India Data'!P53</f>
-        <v>0.6040588235294102</v>
+        <v>0.51511764705882346</v>
       </c>
       <c r="K5">
         <f>'India Data'!Q53</f>
-        <v>0.61844117647058638</v>
+        <v>0.51838235294117663</v>
       </c>
       <c r="L5">
         <f>'India Data'!R53</f>
-        <v>0.63282352941176256</v>
+        <v>0.5216470588235298</v>
       </c>
       <c r="M5">
         <f>'India Data'!S53</f>
-        <v>0.64720588235293874</v>
+        <v>0.52491176470588208</v>
       </c>
       <c r="N5">
         <f>'India Data'!T53</f>
-        <v>0.66158823529411492</v>
+        <v>0.52817647058823525</v>
       </c>
       <c r="O5">
         <f>'India Data'!U53</f>
-        <v>0.6759705882352911</v>
+        <v>0.53144117647058842</v>
       </c>
       <c r="P5">
         <f>'India Data'!V53</f>
-        <v>0.69035294117646728</v>
+        <v>0.53470588235294159</v>
       </c>
       <c r="Q5">
         <f>'India Data'!W53</f>
-        <v>0.70473529411764702</v>
+        <v>0.53797058823529387</v>
       </c>
       <c r="R5">
         <f>'India Data'!X53</f>
-        <v>0.7191176470588232</v>
+        <v>0.54123529411764704</v>
       </c>
       <c r="S5">
         <f>'India Data'!Y53</f>
-        <v>0.73349999999999937</v>
+        <v>0.54450000000000021</v>
       </c>
       <c r="T5">
         <f>'India Data'!Z53</f>
-        <v>0.74788235294117555</v>
+        <v>0.54776470588235338</v>
       </c>
       <c r="U5">
         <f>'India Data'!AA53</f>
-        <v>0.76226470588235173</v>
+        <v>0.55102941176470566</v>
       </c>
       <c r="V5">
         <f>'India Data'!AB53</f>
-        <v>0.77664705882352791</v>
+        <v>0.55429411764705883</v>
       </c>
       <c r="W5">
         <f>'India Data'!AC53</f>
-        <v>0.79102941176470409</v>
+        <v>0.557558823529412</v>
       </c>
       <c r="X5">
         <f>'India Data'!AD53</f>
-        <v>0.80541176470588027</v>
+        <v>0.56082352941176516</v>
       </c>
       <c r="Y5">
         <f>'India Data'!AE53</f>
-        <v>0.81979411764705645</v>
+        <v>0.56408823529411745</v>
       </c>
       <c r="Z5">
         <f>'India Data'!AF53</f>
-        <v>0.83417647058823263</v>
+        <v>0.56735294117647062</v>
       </c>
       <c r="AA5">
         <f>'India Data'!AG53</f>
-        <v>0.84855882352940881</v>
+        <v>0.57061764705882378</v>
       </c>
       <c r="AB5">
         <f>'India Data'!AH53</f>
-        <v>0.86294117647058499</v>
+        <v>0.57388235294117695</v>
       </c>
       <c r="AC5">
         <f>'India Data'!AI53</f>
-        <v>0.87732352941176472</v>
+        <v>0.57714705882352924</v>
       </c>
       <c r="AD5">
         <f>'India Data'!AJ53</f>
-        <v>0.8917058823529409</v>
+        <v>0.5804117647058824</v>
       </c>
       <c r="AE5">
         <f>'India Data'!AK53</f>
-        <v>0.90608823529411708</v>
+        <v>0.58367647058823557</v>
       </c>
       <c r="AF5">
         <f>'India Data'!AL53</f>
-        <v>0.92047058823529326</v>
+        <v>0.58694117647058874</v>
       </c>
       <c r="AG5">
         <f>'India Data'!AM53</f>
-        <v>0.93485294117646944</v>
+        <v>0.59020588235294102</v>
       </c>
       <c r="AH5">
         <f>'India Data'!AN53</f>
-        <v>0.94923529411764562</v>
+        <v>0.59347058823529419</v>
       </c>
       <c r="AI5">
         <f>'India Data'!AO53</f>
-        <v>0.9636176470588218</v>
+        <v>0.59673529411764736</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -5652,139 +5651,139 @@
       </c>
       <c r="C2">
         <f>'India Data'!I57</f>
-        <v>0.65902960122210263</v>
+        <v>0.66994176937584526</v>
       </c>
       <c r="D2">
         <f>'India Data'!J57</f>
-        <v>0.65552062800241451</v>
+        <v>0.67014897446969079</v>
       </c>
       <c r="E2">
         <f>'India Data'!K57</f>
-        <v>0.65086002903774454</v>
+        <v>0.67042418313769436</v>
       </c>
       <c r="F2">
         <f>'India Data'!L57</f>
-        <v>0.64470349652978387</v>
+        <v>0.67078772677744558</v>
       </c>
       <c r="G2">
         <f>'India Data'!M57</f>
-        <v>0.6366291704210667</v>
+        <v>0.67126451625241479</v>
       </c>
       <c r="H2">
         <f>'India Data'!N57</f>
-        <v>0.62613897962082321</v>
+        <v>0.67188396269248052</v>
       </c>
       <c r="I2">
         <f>'India Data'!O57</f>
-        <v>0.61267571752574523</v>
+        <v>0.67267896918333236</v>
       </c>
       <c r="J2">
         <f>'India Data'!P57</f>
-        <v>0.59566534696168016</v>
+        <v>0.67368343265694852</v>
       </c>
       <c r="K2">
         <f>'India Data'!Q57</f>
-        <v>0.57459367796989913</v>
+        <v>0.67492771606339508</v>
       </c>
       <c r="L2">
         <f>'India Data'!R57</f>
-        <v>0.54912053756382329</v>
+        <v>0.67643190663936359</v>
       </c>
       <c r="M2">
         <f>'India Data'!S57</f>
-        <v>0.5192197750299189</v>
+        <v>0.67819754858616665</v>
       </c>
       <c r="N2">
         <f>'India Data'!T57</f>
-        <v>0.48531084169992994</v>
+        <v>0.68019987327574238</v>
       </c>
       <c r="O2">
         <f>'India Data'!U57</f>
-        <v>0.44832714706418841</v>
+        <v>0.68238376281777591</v>
       </c>
       <c r="P2">
         <f>'India Data'!V57</f>
-        <v>0.40966666666666679</v>
+        <v>0.68466666666666676</v>
       </c>
       <c r="Q2">
         <f>'India Data'!W57</f>
-        <v>0.37100618626914517</v>
+        <v>0.68694957051555761</v>
       </c>
       <c r="R2">
         <f>'India Data'!X57</f>
-        <v>0.3340224916334037</v>
+        <v>0.68913346005759113</v>
       </c>
       <c r="S2">
         <f>'India Data'!Y57</f>
-        <v>0.30011355830341474</v>
+        <v>0.69113578474716686</v>
       </c>
       <c r="T2">
         <f>'India Data'!Z57</f>
-        <v>0.27021279576951029</v>
+        <v>0.69290142669396992</v>
       </c>
       <c r="U2">
         <f>'India Data'!AA57</f>
-        <v>0.24473965536343445</v>
+        <v>0.69440561726993844</v>
       </c>
       <c r="V2">
         <f>'India Data'!AB57</f>
-        <v>0.22366798637165336</v>
+        <v>0.69564990067638499</v>
       </c>
       <c r="W2">
         <f>'India Data'!AC57</f>
-        <v>0.20665761580758835</v>
+        <v>0.69665436415000115</v>
       </c>
       <c r="X2">
         <f>'India Data'!AD57</f>
-        <v>0.19319435371251037</v>
+        <v>0.69744937064085299</v>
       </c>
       <c r="Y2">
         <f>'India Data'!AE57</f>
-        <v>0.18270416291226688</v>
+        <v>0.69806881708091872</v>
       </c>
       <c r="Z2">
         <f>'India Data'!AF57</f>
-        <v>0.17462983680354965</v>
+        <v>0.69854560655588793</v>
       </c>
       <c r="AA2">
         <f>'India Data'!AG57</f>
-        <v>0.16847330429558904</v>
+        <v>0.69890915019563915</v>
       </c>
       <c r="AB2">
         <f>'India Data'!AH57</f>
-        <v>0.16381270533091907</v>
+        <v>0.69918435886364272</v>
       </c>
       <c r="AC2">
         <f>'India Data'!AI57</f>
-        <v>0.16030373211123095</v>
+        <v>0.69939156395748825</v>
       </c>
       <c r="AD2">
         <f>'India Data'!AJ57</f>
-        <v>0.15767264712603979</v>
+        <v>0.69954692969473964</v>
       </c>
       <c r="AE2">
         <f>'India Data'!AK57</f>
-        <v>0.15570588553948805</v>
+        <v>0.69966306709266179</v>
       </c>
       <c r="AF2">
         <f>'India Data'!AL57</f>
-        <v>0.15423909528554103</v>
+        <v>0.69974968115130309</v>
       </c>
       <c r="AG2">
         <f>'India Data'!AM57</f>
-        <v>0.15314705690796271</v>
+        <v>0.69981416608759139</v>
       </c>
       <c r="AH2">
         <f>'India Data'!AN57</f>
-        <v>0.15233506452824885</v>
+        <v>0.69986211428973111</v>
       </c>
       <c r="AI2">
         <f>'India Data'!AO57</f>
-        <v>0.15173187659498333</v>
+        <v>0.69989773257590593</v>
       </c>
       <c r="AJ2">
         <f>'India Data'!AP57</f>
-        <v>0.15128411562601229</v>
+        <v>0.69992417288986319</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.45">
@@ -6087,139 +6086,139 @@
       </c>
       <c r="C5">
         <f>'India Data'!I60</f>
-        <v>0.34039215686274105</v>
+        <v>0.33270588235294074</v>
       </c>
       <c r="D5">
         <f>'India Data'!J60</f>
-        <v>0.35011764705881987</v>
+        <v>0.33474509803921482</v>
       </c>
       <c r="E5">
         <f>'India Data'!K60</f>
-        <v>0.35984313725489869</v>
+        <v>0.33678431372548978</v>
       </c>
       <c r="F5">
         <f>'India Data'!L60</f>
-        <v>0.36956862745097752</v>
+        <v>0.33882352941176386</v>
       </c>
       <c r="G5">
         <f>'India Data'!M60</f>
-        <v>0.37929411764705634</v>
+        <v>0.34086274509803882</v>
       </c>
       <c r="H5">
         <f>'India Data'!N60</f>
-        <v>0.38901960784313516</v>
+        <v>0.3429019607843129</v>
       </c>
       <c r="I5">
         <f>'India Data'!O60</f>
-        <v>0.39874509803921399</v>
+        <v>0.34494117647058786</v>
       </c>
       <c r="J5">
         <f>'India Data'!P60</f>
-        <v>0.40847058823529281</v>
+        <v>0.34698039215686194</v>
       </c>
       <c r="K5">
         <f>'India Data'!Q60</f>
-        <v>0.41819607843137163</v>
+        <v>0.3490196078431369</v>
       </c>
       <c r="L5">
         <f>'India Data'!R60</f>
-        <v>0.4279215686274469</v>
+        <v>0.35105882352941098</v>
       </c>
       <c r="M5">
         <f>'India Data'!S60</f>
-        <v>0.43764705882352573</v>
+        <v>0.35309803921568594</v>
       </c>
       <c r="N5">
         <f>'India Data'!T60</f>
-        <v>0.44737254901960455</v>
+        <v>0.35513725490196002</v>
       </c>
       <c r="O5">
         <f>'India Data'!U60</f>
-        <v>0.45709803921568337</v>
+        <v>0.35717647058823498</v>
       </c>
       <c r="P5">
         <f>'India Data'!V60</f>
-        <v>0.46682352941176219</v>
+        <v>0.35921568627450906</v>
       </c>
       <c r="Q5">
         <f>'India Data'!W60</f>
-        <v>0.47654901960784102</v>
+        <v>0.36125490196078403</v>
       </c>
       <c r="R5">
         <f>'India Data'!X60</f>
-        <v>0.48627450980391984</v>
+        <v>0.3632941176470581</v>
       </c>
       <c r="S5">
         <f>'India Data'!Y60</f>
-        <v>0.49599999999999866</v>
+        <v>0.36533333333333307</v>
       </c>
       <c r="T5">
         <f>'India Data'!Z60</f>
-        <v>0.50572549019607749</v>
+        <v>0.36737254901960714</v>
       </c>
       <c r="U5">
         <f>'India Data'!AA60</f>
-        <v>0.51545098039215276</v>
+        <v>0.36941176470588211</v>
       </c>
       <c r="V5">
         <f>'India Data'!AB60</f>
-        <v>0.52517647058823158</v>
+        <v>0.37145098039215618</v>
       </c>
       <c r="W5">
         <f>'India Data'!AC60</f>
-        <v>0.5349019607843104</v>
+        <v>0.37349019607843115</v>
       </c>
       <c r="X5">
         <f>'India Data'!AD60</f>
-        <v>0.54462745098038923</v>
+        <v>0.37552941176470522</v>
       </c>
       <c r="Y5">
         <f>'India Data'!AE60</f>
-        <v>0.55435294117646805</v>
+        <v>0.37756862745098019</v>
       </c>
       <c r="Z5">
         <f>'India Data'!AF60</f>
-        <v>0.56407843137254687</v>
+        <v>0.37960784313725426</v>
       </c>
       <c r="AA5">
         <f>'India Data'!AG60</f>
-        <v>0.5738039215686257</v>
+        <v>0.38164705882352923</v>
       </c>
       <c r="AB5">
         <f>'India Data'!AH60</f>
-        <v>0.58352941176470452</v>
+        <v>0.3836862745098033</v>
       </c>
       <c r="AC5">
         <f>'India Data'!AI60</f>
-        <v>0.59325490196078334</v>
+        <v>0.38572549019607827</v>
       </c>
       <c r="AD5">
         <f>'India Data'!AJ60</f>
-        <v>0.60298039215685861</v>
+        <v>0.38776470588235235</v>
       </c>
       <c r="AE5">
         <f>'India Data'!AK60</f>
-        <v>0.61270588235293744</v>
+        <v>0.38980392156862731</v>
       </c>
       <c r="AF5">
         <f>'India Data'!AL60</f>
-        <v>0.62243137254901626</v>
+        <v>0.39184313725490139</v>
       </c>
       <c r="AG5">
         <f>'India Data'!AM60</f>
-        <v>0.63215686274509508</v>
+        <v>0.39388235294117635</v>
       </c>
       <c r="AH5">
         <f>'India Data'!AN60</f>
-        <v>0.64188235294117391</v>
+        <v>0.39592156862745043</v>
       </c>
       <c r="AI5">
         <f>'India Data'!AO60</f>
-        <v>0.65160784313725273</v>
+        <v>0.3979607843137245</v>
       </c>
       <c r="AJ5">
         <f>'India Data'!AP60</f>
-        <v>0.66133333333333155</v>
+        <v>0.39999999999999947</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.45">
@@ -11745,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19057,8 +19056,7 @@
         <v>0.48900000000000005</v>
       </c>
       <c r="E53">
-        <f>MIN(1,D53*'India Assumptions'!$A$4)</f>
-        <v>0.97800000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="F53" s="15" t="str">
         <f t="shared" si="6"/>
@@ -19070,139 +19068,139 @@
       </c>
       <c r="I53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,I$7))</f>
-        <v>0.50338235294117339</v>
+        <v>0.49226470588235305</v>
       </c>
       <c r="J53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.51776470588234957</v>
+        <v>0.49552941176470622</v>
       </c>
       <c r="K53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.53214705882352931</v>
+        <v>0.4987941176470585</v>
       </c>
       <c r="L53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.54652941176470549</v>
+        <v>0.50205882352941167</v>
       </c>
       <c r="M53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.56091176470588167</v>
+        <v>0.50532352941176484</v>
       </c>
       <c r="N53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.57529411764705785</v>
+        <v>0.50858823529411801</v>
       </c>
       <c r="O53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.58967647058823403</v>
+        <v>0.51185294117647029</v>
       </c>
       <c r="P53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.6040588235294102</v>
+        <v>0.51511764705882346</v>
       </c>
       <c r="Q53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.61844117647058638</v>
+        <v>0.51838235294117663</v>
       </c>
       <c r="R53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.63282352941176256</v>
+        <v>0.5216470588235298</v>
       </c>
       <c r="S53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.64720588235293874</v>
+        <v>0.52491176470588208</v>
       </c>
       <c r="T53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.66158823529411492</v>
+        <v>0.52817647058823525</v>
       </c>
       <c r="U53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.6759705882352911</v>
+        <v>0.53144117647058842</v>
       </c>
       <c r="V53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.69035294117646728</v>
+        <v>0.53470588235294159</v>
       </c>
       <c r="W53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.70473529411764702</v>
+        <v>0.53797058823529387</v>
       </c>
       <c r="X53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.7191176470588232</v>
+        <v>0.54123529411764704</v>
       </c>
       <c r="Y53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.73349999999999937</v>
+        <v>0.54450000000000021</v>
       </c>
       <c r="Z53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.74788235294117555</v>
+        <v>0.54776470588235338</v>
       </c>
       <c r="AA53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.76226470588235173</v>
+        <v>0.55102941176470566</v>
       </c>
       <c r="AB53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.77664705882352791</v>
+        <v>0.55429411764705883</v>
       </c>
       <c r="AC53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.79102941176470409</v>
+        <v>0.557558823529412</v>
       </c>
       <c r="AD53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.80541176470588027</v>
+        <v>0.56082352941176516</v>
       </c>
       <c r="AE53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.81979411764705645</v>
+        <v>0.56408823529411745</v>
       </c>
       <c r="AF53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.83417647058823263</v>
+        <v>0.56735294117647062</v>
       </c>
       <c r="AG53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.84855882352940881</v>
+        <v>0.57061764705882378</v>
       </c>
       <c r="AH53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.86294117647058499</v>
+        <v>0.57388235294117695</v>
       </c>
       <c r="AI53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.87732352941176472</v>
+        <v>0.57714705882352924</v>
       </c>
       <c r="AJ53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.8917058823529409</v>
+        <v>0.5804117647058824</v>
       </c>
       <c r="AK53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.90608823529411708</v>
+        <v>0.58367647058823557</v>
       </c>
       <c r="AL53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.92047058823529326</v>
+        <v>0.58694117647058874</v>
       </c>
       <c r="AM53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.93485294117646944</v>
+        <v>0.59020588235294102</v>
       </c>
       <c r="AN53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>0.94923529411764562</v>
+        <v>0.59347058823529419</v>
       </c>
       <c r="AO53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>0.9636176470588218</v>
+        <v>0.59673529411764736</v>
       </c>
       <c r="AP53">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>0.97799999999999798</v>
+        <v>0.59999999999999964</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.45">
@@ -19692,8 +19690,7 @@
         <v>0.66933333333333356</v>
       </c>
       <c r="E57">
-        <f>E50*'India Assumptions'!$A$31</f>
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="F57" s="15" t="str">
         <f t="shared" si="6"/>
@@ -19705,139 +19702,139 @@
       </c>
       <c r="I57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,I$7))</f>
-        <v>0.65902960122210263</v>
+        <v>0.66994176937584526</v>
       </c>
       <c r="J57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,J$7))</f>
-        <v>0.65552062800241451</v>
+        <v>0.67014897446969079</v>
       </c>
       <c r="K57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,K$7))</f>
-        <v>0.65086002903774454</v>
+        <v>0.67042418313769436</v>
       </c>
       <c r="L57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,L$7))</f>
-        <v>0.64470349652978387</v>
+        <v>0.67078772677744558</v>
       </c>
       <c r="M57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,M$7))</f>
-        <v>0.6366291704210667</v>
+        <v>0.67126451625241479</v>
       </c>
       <c r="N57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,N$7))</f>
-        <v>0.62613897962082321</v>
+        <v>0.67188396269248052</v>
       </c>
       <c r="O57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,O$7))</f>
-        <v>0.61267571752574523</v>
+        <v>0.67267896918333236</v>
       </c>
       <c r="P57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,P$7))</f>
-        <v>0.59566534696168016</v>
+        <v>0.67368343265694852</v>
       </c>
       <c r="Q57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,Q$7))</f>
-        <v>0.57459367796989913</v>
+        <v>0.67492771606339508</v>
       </c>
       <c r="R57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,R$7))</f>
-        <v>0.54912053756382329</v>
+        <v>0.67643190663936359</v>
       </c>
       <c r="S57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,S$7))</f>
-        <v>0.5192197750299189</v>
+        <v>0.67819754858616665</v>
       </c>
       <c r="T57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,T$7))</f>
-        <v>0.48531084169992994</v>
+        <v>0.68019987327574238</v>
       </c>
       <c r="U57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,U$7))</f>
-        <v>0.44832714706418841</v>
+        <v>0.68238376281777591</v>
       </c>
       <c r="V57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,V$7))</f>
-        <v>0.40966666666666679</v>
+        <v>0.68466666666666676</v>
       </c>
       <c r="W57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,W$7))</f>
-        <v>0.37100618626914517</v>
+        <v>0.68694957051555761</v>
       </c>
       <c r="X57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,X$7))</f>
-        <v>0.3340224916334037</v>
+        <v>0.68913346005759113</v>
       </c>
       <c r="Y57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,Y$7))</f>
-        <v>0.30011355830341474</v>
+        <v>0.69113578474716686</v>
       </c>
       <c r="Z57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,Z$7))</f>
-        <v>0.27021279576951029</v>
+        <v>0.69290142669396992</v>
       </c>
       <c r="AA57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AA$7))</f>
-        <v>0.24473965536343445</v>
+        <v>0.69440561726993844</v>
       </c>
       <c r="AB57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AB$7))</f>
-        <v>0.22366798637165336</v>
+        <v>0.69564990067638499</v>
       </c>
       <c r="AC57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AC$7))</f>
-        <v>0.20665761580758835</v>
+        <v>0.69665436415000115</v>
       </c>
       <c r="AD57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AD$7))</f>
-        <v>0.19319435371251037</v>
+        <v>0.69744937064085299</v>
       </c>
       <c r="AE57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AE$7))</f>
-        <v>0.18270416291226688</v>
+        <v>0.69806881708091872</v>
       </c>
       <c r="AF57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AF$7))</f>
-        <v>0.17462983680354965</v>
+        <v>0.69854560655588793</v>
       </c>
       <c r="AG57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AG$7))</f>
-        <v>0.16847330429558904</v>
+        <v>0.69890915019563915</v>
       </c>
       <c r="AH57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AH$7))</f>
-        <v>0.16381270533091907</v>
+        <v>0.69918435886364272</v>
       </c>
       <c r="AI57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AI$7))</f>
-        <v>0.16030373211123095</v>
+        <v>0.69939156395748825</v>
       </c>
       <c r="AJ57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AJ$7))</f>
-        <v>0.15767264712603979</v>
+        <v>0.69954692969473964</v>
       </c>
       <c r="AK57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AK$7))</f>
-        <v>0.15570588553948805</v>
+        <v>0.69966306709266179</v>
       </c>
       <c r="AL57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AL$7))</f>
-        <v>0.15423909528554103</v>
+        <v>0.69974968115130309</v>
       </c>
       <c r="AM57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AM$7))</f>
-        <v>0.15314705690796271</v>
+        <v>0.69981416608759139</v>
       </c>
       <c r="AN57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AN$7))</f>
-        <v>0.15233506452824885</v>
+        <v>0.69986211428973111</v>
       </c>
       <c r="AO57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AO$7))</f>
-        <v>0.15173187659498333</v>
+        <v>0.69989773257590593</v>
       </c>
       <c r="AP57">
         <f>IF($F57="s-curve",$D57+($E57-$D57)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D57:$E57,$D$7:$E$7,AP$7))</f>
-        <v>0.15128411562601229</v>
+        <v>0.69992417288986319</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.45">
@@ -20163,8 +20160,7 @@
         <v>0.33066666666666639</v>
       </c>
       <c r="E60">
-        <f>MIN(1,D60*'India Assumptions'!$A$4)</f>
-        <v>0.66133333333333277</v>
+        <v>0.4</v>
       </c>
       <c r="F60" s="15" t="str">
         <f t="shared" si="6"/>
@@ -20176,139 +20172,139 @@
       </c>
       <c r="I60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,I$7))</f>
-        <v>0.34039215686274105</v>
+        <v>0.33270588235294074</v>
       </c>
       <c r="J60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,J$7))</f>
-        <v>0.35011764705881987</v>
+        <v>0.33474509803921482</v>
       </c>
       <c r="K60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,K$7))</f>
-        <v>0.35984313725489869</v>
+        <v>0.33678431372548978</v>
       </c>
       <c r="L60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,L$7))</f>
-        <v>0.36956862745097752</v>
+        <v>0.33882352941176386</v>
       </c>
       <c r="M60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,M$7))</f>
-        <v>0.37929411764705634</v>
+        <v>0.34086274509803882</v>
       </c>
       <c r="N60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,N$7))</f>
-        <v>0.38901960784313516</v>
+        <v>0.3429019607843129</v>
       </c>
       <c r="O60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,O$7))</f>
-        <v>0.39874509803921399</v>
+        <v>0.34494117647058786</v>
       </c>
       <c r="P60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,P$7))</f>
-        <v>0.40847058823529281</v>
+        <v>0.34698039215686194</v>
       </c>
       <c r="Q60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,Q$7))</f>
-        <v>0.41819607843137163</v>
+        <v>0.3490196078431369</v>
       </c>
       <c r="R60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,R$7))</f>
-        <v>0.4279215686274469</v>
+        <v>0.35105882352941098</v>
       </c>
       <c r="S60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,S$7))</f>
-        <v>0.43764705882352573</v>
+        <v>0.35309803921568594</v>
       </c>
       <c r="T60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,T$7))</f>
-        <v>0.44737254901960455</v>
+        <v>0.35513725490196002</v>
       </c>
       <c r="U60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,U$7))</f>
-        <v>0.45709803921568337</v>
+        <v>0.35717647058823498</v>
       </c>
       <c r="V60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,V$7))</f>
-        <v>0.46682352941176219</v>
+        <v>0.35921568627450906</v>
       </c>
       <c r="W60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,W$7))</f>
-        <v>0.47654901960784102</v>
+        <v>0.36125490196078403</v>
       </c>
       <c r="X60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,X$7))</f>
-        <v>0.48627450980391984</v>
+        <v>0.3632941176470581</v>
       </c>
       <c r="Y60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,Y$7))</f>
-        <v>0.49599999999999866</v>
+        <v>0.36533333333333307</v>
       </c>
       <c r="Z60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,Z$7))</f>
-        <v>0.50572549019607749</v>
+        <v>0.36737254901960714</v>
       </c>
       <c r="AA60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AA$7))</f>
-        <v>0.51545098039215276</v>
+        <v>0.36941176470588211</v>
       </c>
       <c r="AB60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AB$7))</f>
-        <v>0.52517647058823158</v>
+        <v>0.37145098039215618</v>
       </c>
       <c r="AC60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AC$7))</f>
-        <v>0.5349019607843104</v>
+        <v>0.37349019607843115</v>
       </c>
       <c r="AD60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AD$7))</f>
-        <v>0.54462745098038923</v>
+        <v>0.37552941176470522</v>
       </c>
       <c r="AE60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AE$7))</f>
-        <v>0.55435294117646805</v>
+        <v>0.37756862745098019</v>
       </c>
       <c r="AF60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AF$7))</f>
-        <v>0.56407843137254687</v>
+        <v>0.37960784313725426</v>
       </c>
       <c r="AG60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AG$7))</f>
-        <v>0.5738039215686257</v>
+        <v>0.38164705882352923</v>
       </c>
       <c r="AH60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AH$7))</f>
-        <v>0.58352941176470452</v>
+        <v>0.3836862745098033</v>
       </c>
       <c r="AI60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AI$7))</f>
-        <v>0.59325490196078334</v>
+        <v>0.38572549019607827</v>
       </c>
       <c r="AJ60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AJ$7))</f>
-        <v>0.60298039215685861</v>
+        <v>0.38776470588235235</v>
       </c>
       <c r="AK60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AK$7))</f>
-        <v>0.61270588235293744</v>
+        <v>0.38980392156862731</v>
       </c>
       <c r="AL60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AL$7))</f>
-        <v>0.62243137254901626</v>
+        <v>0.39184313725490139</v>
       </c>
       <c r="AM60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AM$7))</f>
-        <v>0.63215686274509508</v>
+        <v>0.39388235294117635</v>
       </c>
       <c r="AN60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AN$7))</f>
-        <v>0.64188235294117391</v>
+        <v>0.39592156862745043</v>
       </c>
       <c r="AO60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AO$7))</f>
-        <v>0.65160784313725273</v>
+        <v>0.3979607843137245</v>
       </c>
       <c r="AP60">
         <f>IF($F60="s-curve",$D60+($E60-$D60)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D60:$E60,$D$7:$E$7,AP$7))</f>
-        <v>0.66133333333333155</v>
+        <v>0.39999999999999947</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -30,7 +30,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -9588,135 +9588,135 @@
       </c>
       <c r="C6">
         <f>'India Data'!I82</f>
-        <v>5.9520917202232522E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'India Data'!J82</f>
-        <v>7.9790980730597583E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>'India Data'!K82</f>
-        <v>1.0671356781790852E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>'India Data'!L82</f>
-        <v>1.4227761953270034E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'India Data'!M82</f>
-        <v>1.889200681709895E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>'India Data'!N82</f>
-        <v>2.495180894817671E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>'India Data'!O82</f>
-        <v>3.2729046358683872E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>'India Data'!P82</f>
-        <v>4.2555319470146347E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>'India Data'!Q82</f>
-        <v>5.4727657141906902E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>'India Data'!R82</f>
-        <v>6.9442564950294702E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>'India Data'!S82</f>
-        <v>8.6715149212498815E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>'India Data'!T82</f>
-        <v>0.10630310813226136</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>'India Data'!U82</f>
-        <v>0.12766724495650231</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>'India Data'!V82</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>'India Data'!W82</f>
-        <v>0.17233275504349771</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>'India Data'!X82</f>
-        <v>0.19369689186773861</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>'India Data'!Y82</f>
-        <v>0.21328485078750117</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>'India Data'!Z82</f>
-        <v>0.23055743504970527</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>'India Data'!AA82</f>
-        <v>0.24527234285809307</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>'India Data'!AB82</f>
-        <v>0.2574446805298537</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>'India Data'!AC82</f>
-        <v>0.26727095364131614</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>'India Data'!AD82</f>
-        <v>0.27504819105182327</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>'India Data'!AE82</f>
-        <v>0.28110799318290103</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>'India Data'!AF82</f>
-        <v>0.28577223804672996</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>'India Data'!AG82</f>
-        <v>0.28932864321820917</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>'India Data'!AH82</f>
-        <v>0.29202090192694019</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>'India Data'!AI82</f>
-        <v>0.29404790827977673</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>'India Data'!AJ82</f>
-        <v>0.29556779049201809</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>'India Data'!AK82</f>
-        <v>0.29670391721082207</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f>'India Data'!AL82</f>
-        <v>0.29755122865405204</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f>'India Data'!AM82</f>
-        <v>0.29818205955252475</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>'India Data'!AN82</f>
-        <v>0.29865111805171762</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f>'India Data'!AO82</f>
-        <v>0.29899955780777598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
@@ -11744,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23611,12 +23611,11 @@
         <v>0</v>
       </c>
       <c r="E82" s="10">
-        <f>E78*'India Assumptions'!$A$36</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F82" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H82" s="10">
         <f t="shared" si="7"/>
@@ -23624,139 +23623,139 @@
       </c>
       <c r="I82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,I$7))</f>
-        <v>5.9520917202232522E-3</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,J$7))</f>
-        <v>7.9790980730597583E-3</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,K$7))</f>
-        <v>1.0671356781790852E-2</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,L$7))</f>
-        <v>1.4227761953270034E-2</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,M$7))</f>
-        <v>1.889200681709895E-2</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,N$7))</f>
-        <v>2.495180894817671E-2</v>
+        <v>0</v>
       </c>
       <c r="O82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,O$7))</f>
-        <v>3.2729046358683872E-2</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,P$7))</f>
-        <v>4.2555319470146347E-2</v>
+        <v>0</v>
       </c>
       <c r="Q82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,Q$7))</f>
-        <v>5.4727657141906902E-2</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,R$7))</f>
-        <v>6.9442564950294702E-2</v>
+        <v>0</v>
       </c>
       <c r="S82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,S$7))</f>
-        <v>8.6715149212498815E-2</v>
+        <v>0</v>
       </c>
       <c r="T82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,T$7))</f>
-        <v>0.10630310813226136</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,U$7))</f>
-        <v>0.12766724495650231</v>
+        <v>0</v>
       </c>
       <c r="V82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,V$7))</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,W$7))</f>
-        <v>0.17233275504349771</v>
+        <v>0</v>
       </c>
       <c r="X82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,X$7))</f>
-        <v>0.19369689186773861</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,Y$7))</f>
-        <v>0.21328485078750117</v>
+        <v>0</v>
       </c>
       <c r="Z82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,Z$7))</f>
-        <v>0.23055743504970527</v>
+        <v>0</v>
       </c>
       <c r="AA82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AA$7))</f>
-        <v>0.24527234285809307</v>
+        <v>0</v>
       </c>
       <c r="AB82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AB$7))</f>
-        <v>0.2574446805298537</v>
+        <v>0</v>
       </c>
       <c r="AC82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AC$7))</f>
-        <v>0.26727095364131614</v>
+        <v>0</v>
       </c>
       <c r="AD82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AD$7))</f>
-        <v>0.27504819105182327</v>
+        <v>0</v>
       </c>
       <c r="AE82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AE$7))</f>
-        <v>0.28110799318290103</v>
+        <v>0</v>
       </c>
       <c r="AF82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AF$7))</f>
-        <v>0.28577223804672996</v>
+        <v>0</v>
       </c>
       <c r="AG82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AG$7))</f>
-        <v>0.28932864321820917</v>
+        <v>0</v>
       </c>
       <c r="AH82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AH$7))</f>
-        <v>0.29202090192694019</v>
+        <v>0</v>
       </c>
       <c r="AI82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AI$7))</f>
-        <v>0.29404790827977673</v>
+        <v>0</v>
       </c>
       <c r="AJ82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AJ$7))</f>
-        <v>0.29556779049201809</v>
+        <v>0</v>
       </c>
       <c r="AK82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AK$7))</f>
-        <v>0.29670391721082207</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AL$7))</f>
-        <v>0.29755122865405204</v>
+        <v>0</v>
       </c>
       <c r="AM82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AM$7))</f>
-        <v>0.29818205955252475</v>
+        <v>0</v>
       </c>
       <c r="AN82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AN$7))</f>
-        <v>0.29865111805171762</v>
+        <v>0</v>
       </c>
       <c r="AO82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AO$7))</f>
-        <v>0.29899955780777598</v>
+        <v>0</v>
       </c>
       <c r="AP82">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D82:$E82,$D$7:$E$7,AP$7))</f>
-        <v>0.29925821305300959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE96F17-E448-49AB-88CD-BB1C8EA05DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,12 +31,15 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -342,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -639,15 +643,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1826,6 +1830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1861,6 +1882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2036,25 +2074,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.265625" customWidth="1"/>
-    <col min="5" max="5" width="73.265625" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="5" max="5" width="73.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
@@ -2073,23 +2111,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="E5" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2097,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>2017</v>
       </c>
@@ -2113,7 +2151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -2129,133 +2167,133 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>2019</v>
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2263,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2273,12 +2311,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2423,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -2949,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -3231,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -3378,7 +3416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3388,12 +3426,12 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3538,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -4346,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -4493,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4501,12 +4539,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -4613,17 +4651,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H51</f>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C2">
         <f>'India Data'!I51</f>
-        <v>0.65234569321637303</v>
+        <v>0.65234569321637315</v>
       </c>
       <c r="D2">
         <f>'India Data'!J51</f>
@@ -4635,7 +4673,7 @@
       </c>
       <c r="F2">
         <f>'India Data'!L51</f>
-        <v>0.75549999999999995</v>
+        <v>0.75550000000000006</v>
       </c>
       <c r="G2">
         <f>'India Data'!M51</f>
@@ -4647,7 +4685,7 @@
       </c>
       <c r="I2">
         <f>'India Data'!O51</f>
-        <v>0.85865430678362686</v>
+        <v>0.85865430678362697</v>
       </c>
       <c r="J2">
         <f>'India Data'!P51</f>
@@ -4754,7 +4792,7 @@
         <v>0.99991855310632394</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -5036,13 +5074,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H54</f>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="C5">
         <f>'India Data'!I54</f>
@@ -5177,7 +5215,7 @@
         <v>0.75064285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -5318,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -5459,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -5606,7 +5644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5616,12 +5654,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5911,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -6018,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -6163,13 +6201,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H61</f>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="C5">
         <f>'India Data'!I61</f>
@@ -6308,7 +6346,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -6453,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -6598,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -6749,7 +6787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6759,12 +6797,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -6871,7 +6909,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7012,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -7153,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -7294,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -7435,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -7576,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -7717,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -7864,7 +7902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7874,12 +7912,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -7986,7 +8024,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8127,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8268,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8409,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -8691,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -8832,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -8979,7 +9017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8989,12 +9027,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -9101,25 +9139,25 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H79</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="C2">
         <f>'India Data'!I79</f>
-        <v>5.065932652530121E-2</v>
+        <v>5.0659326525301224E-2</v>
       </c>
       <c r="D2">
         <f>'India Data'!J79</f>
-        <v>5.4446182352703411E-2</v>
+        <v>5.4446182352703418E-2</v>
       </c>
       <c r="E2">
         <f>'India Data'!K79</f>
-        <v>5.9475863471248468E-2</v>
+        <v>5.9475863471248475E-2</v>
       </c>
       <c r="F2">
         <f>'India Data'!L79</f>
@@ -9127,19 +9165,19 @@
       </c>
       <c r="G2">
         <f>'India Data'!M79</f>
-        <v>7.4833692245528313E-2</v>
+        <v>7.4833692245528327E-2</v>
       </c>
       <c r="H2">
         <f>'India Data'!N79</f>
-        <v>8.615462223712117E-2</v>
+        <v>8.6154622237121184E-2</v>
       </c>
       <c r="I2">
         <f>'India Data'!O79</f>
-        <v>0.10068406698595314</v>
+        <v>0.10068406698595316</v>
       </c>
       <c r="J2">
         <f>'India Data'!P79</f>
-        <v>0.11904152281815424</v>
+        <v>0.11904152281815425</v>
       </c>
       <c r="K2">
         <f>'India Data'!Q79</f>
@@ -9159,7 +9197,7 @@
       </c>
       <c r="O2">
         <f>'India Data'!U79</f>
-        <v>0.27804772946294665</v>
+        <v>0.2780477294629467</v>
       </c>
       <c r="P2">
         <f>'India Data'!V79</f>
@@ -9242,7 +9280,7 @@
         <v>0.59813097263345971</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -9383,148 +9421,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <f>'India Data'!H81</f>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="C4">
         <f>'India Data'!I81</f>
-        <v>0.96162330877778879</v>
+        <v>0.96162330877778857</v>
       </c>
       <c r="D4">
         <f>'India Data'!J81</f>
-        <v>0.96278623881482583</v>
+        <v>0.96278623881482517</v>
       </c>
       <c r="E4">
         <f>'India Data'!K81</f>
-        <v>0.96394916885186244</v>
+        <v>0.96394916885186221</v>
       </c>
       <c r="F4">
         <f>'India Data'!L81</f>
-        <v>0.96511209888889904</v>
+        <v>0.96511209888889882</v>
       </c>
       <c r="G4">
         <f>'India Data'!M81</f>
-        <v>0.96627502892593564</v>
+        <v>0.96627502892593542</v>
       </c>
       <c r="H4">
         <f>'India Data'!N81</f>
-        <v>0.96743795896297224</v>
+        <v>0.96743795896297202</v>
       </c>
       <c r="I4">
         <f>'India Data'!O81</f>
-        <v>0.96860088900000929</v>
+        <v>0.96860088900000862</v>
       </c>
       <c r="J4">
         <f>'India Data'!P81</f>
-        <v>0.96976381903704589</v>
+        <v>0.96976381903704567</v>
       </c>
       <c r="K4">
         <f>'India Data'!Q81</f>
-        <v>0.9709267490740825</v>
+        <v>0.97092674907408227</v>
       </c>
       <c r="L4">
         <f>'India Data'!R81</f>
-        <v>0.9720896791111191</v>
+        <v>0.97208967911111888</v>
       </c>
       <c r="M4">
         <f>'India Data'!S81</f>
-        <v>0.97325260914815614</v>
+        <v>0.97325260914815548</v>
       </c>
       <c r="N4">
         <f>'India Data'!T81</f>
-        <v>0.97441553918519275</v>
+        <v>0.97441553918519253</v>
       </c>
       <c r="O4">
         <f>'India Data'!U81</f>
-        <v>0.97557846922222935</v>
+        <v>0.97557846922222913</v>
       </c>
       <c r="P4">
         <f>'India Data'!V81</f>
-        <v>0.97674139925926595</v>
+        <v>0.97674139925926573</v>
       </c>
       <c r="Q4">
         <f>'India Data'!W81</f>
-        <v>0.97790432929630255</v>
+        <v>0.97790432929630233</v>
       </c>
       <c r="R4">
         <f>'India Data'!X81</f>
-        <v>0.9790672593333396</v>
+        <v>0.97906725933333894</v>
       </c>
       <c r="S4">
         <f>'India Data'!Y81</f>
-        <v>0.9802301893703762</v>
+        <v>0.98023018937037598</v>
       </c>
       <c r="T4">
         <f>'India Data'!Z81</f>
-        <v>0.98139311940741281</v>
+        <v>0.98139311940741258</v>
       </c>
       <c r="U4">
         <f>'India Data'!AA81</f>
-        <v>0.98255604944444941</v>
+        <v>0.98255604944444919</v>
       </c>
       <c r="V4">
         <f>'India Data'!AB81</f>
-        <v>0.98371897948148601</v>
+        <v>0.98371897948148579</v>
       </c>
       <c r="W4">
         <f>'India Data'!AC81</f>
-        <v>0.98488190951852306</v>
+        <v>0.98488190951852284</v>
       </c>
       <c r="X4">
         <f>'India Data'!AD81</f>
-        <v>0.98604483955555966</v>
+        <v>0.98604483955555944</v>
       </c>
       <c r="Y4">
         <f>'India Data'!AE81</f>
-        <v>0.98720776959259626</v>
+        <v>0.98720776959259604</v>
       </c>
       <c r="Z4">
         <f>'India Data'!AF81</f>
-        <v>0.98837069962963287</v>
+        <v>0.98837069962963264</v>
       </c>
       <c r="AA4">
         <f>'India Data'!AG81</f>
-        <v>0.98953362966666991</v>
+        <v>0.98953362966666925</v>
       </c>
       <c r="AB4">
         <f>'India Data'!AH81</f>
-        <v>0.99069655970370651</v>
+        <v>0.99069655970370629</v>
       </c>
       <c r="AC4">
         <f>'India Data'!AI81</f>
-        <v>0.99185948974074312</v>
+        <v>0.99185948974074289</v>
       </c>
       <c r="AD4">
         <f>'India Data'!AJ81</f>
-        <v>0.99302241977777972</v>
+        <v>0.9930224197777795</v>
       </c>
       <c r="AE4">
         <f>'India Data'!AK81</f>
-        <v>0.99418534981481632</v>
+        <v>0.9941853498148161</v>
       </c>
       <c r="AF4">
         <f>'India Data'!AL81</f>
-        <v>0.99534827985185337</v>
+        <v>0.99534827985185315</v>
       </c>
       <c r="AG4">
         <f>'India Data'!AM81</f>
-        <v>0.99651120988888997</v>
+        <v>0.99651120988888975</v>
       </c>
       <c r="AH4">
         <f>'India Data'!AN81</f>
-        <v>0.99767413992592657</v>
+        <v>0.99767413992592635</v>
       </c>
       <c r="AI4">
         <f>'India Data'!AO81</f>
-        <v>0.99883706996296318</v>
+        <v>0.99883706996296295</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -9806,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -9947,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -10094,7 +10132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10104,12 +10142,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -10216,7 +10254,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10357,7 +10395,7 @@
         <v>0.29911210755440121</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -10498,7 +10536,7 @@
         <v>5.8197367918530585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -10639,7 +10677,7 @@
         <v>0.78823529411764781</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -10780,7 +10818,7 @@
         <v>0.72228445041798395</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -10921,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -11062,7 +11100,7 @@
         <v>4.4598451660617933E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -11209,21 +11247,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="2" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11249,47 +11287,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9">
-        <v>530028.32526106341</v>
+        <v>615848.20150874218</v>
       </c>
       <c r="C2" s="9">
-        <v>731373.36754717003</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="D2" s="9">
-        <v>19750111.264474779</v>
+        <v>22947963.197690368</v>
       </c>
       <c r="E2" s="9">
-        <v>6211047.6751698116</v>
+        <v>7216713.4432944926</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="9">
-        <v>731373.36754717003</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9">
-        <v>7519.9076535986878</v>
+        <v>8406.8117715651679</v>
       </c>
       <c r="C3" s="9">
-        <v>23857.181775685964</v>
+        <v>26670.91749354481</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>1725289.9105707153</v>
+        <v>1928772.027221299</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -11301,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11327,12 +11365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9">
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -11341,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -11353,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11379,18 +11417,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9">
-        <v>6682276.8117987346</v>
+        <v>7487182.6612117011</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>162319767.18820128</v>
+        <v>181871805.17837322</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -11411,21 +11449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
+    <col min="2" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11451,7 +11489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11465,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>2757639</v>
+        <v>3091878.5080698477</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -11477,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11491,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>5498871</v>
+        <v>6177534.8826565482</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -11503,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11529,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11543,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -11555,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11581,27 +11619,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9">
-        <v>277078.28624999995</v>
+        <v>293883.8740396616</v>
       </c>
       <c r="C7" s="9">
-        <v>928267.03387483058</v>
+        <v>984569.0752262657</v>
       </c>
       <c r="D7" s="9">
-        <v>3283890.7999999993</v>
+        <v>3483068.1367663592</v>
       </c>
       <c r="E7" s="9">
-        <v>3009131.0036627888</v>
+        <v>3191643.3756608581</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>711359.87621238094</v>
+        <v>754505.88022275467</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -11613,20 +11651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.265625" customWidth="1"/>
-    <col min="3" max="3" width="55.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -11636,7 +11674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -11644,7 +11682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11652,7 +11690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -11660,84 +11698,84 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11745,16 +11783,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <f>'SYVbT-passenger'!B2/SUM('SYVbT-passenger'!B2:F2)</f>
-        <v>1.9470186233296542E-2</v>
+        <v>1.9470186233296546E-2</v>
       </c>
       <c r="B25">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>A14*A17</f>
         <v>0.3</v>
@@ -11763,7 +11801,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <f>A20*A26</f>
         <v>0.6</v>
@@ -11772,22 +11810,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -11795,24 +11833,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -11828,25 +11866,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H51" sqref="H51:AP64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11858,7 +11896,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11869,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -11880,7 +11918,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11894,7 +11932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -11902,7 +11940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11919,7 +11957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -12042,7 +12080,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12205,7 +12243,7 @@
         <v>0.5985633089637491</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12400,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -12519,17 +12557,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4">
         <f>'SYVbT-passenger'!E$2/SUM('SYVbT-passenger'!B$2:H$2)</f>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="E11" s="4">
         <f>MIN(1,D11*'India Assumptions'!$A$4)</f>
-        <v>0.4443773584905662</v>
+        <v>0.44437735849056609</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -12537,7 +12575,7 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="I11">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,I$7))</f>
@@ -12676,7 +12714,7 @@
         <v>0.44437735849056459</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -12833,7 +12871,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="31" t="s">
@@ -12992,7 +13030,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="35" t="s">
@@ -13150,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -13312,7 +13350,7 @@
         <v>0.1496291065265048</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -13469,7 +13507,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -13626,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -13783,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -13939,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="31" t="s">
@@ -14098,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="35" t="s">
@@ -14256,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -14268,7 +14306,7 @@
       </c>
       <c r="D22" s="28">
         <f>'SYVbT-passenger'!B$3/SUM('SYVbT-passenger'!B$3:H$3)</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="E22" s="29">
         <f>'India Assumptions'!$A$27</f>
@@ -14280,7 +14318,7 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="3"/>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="I22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,I$7))</f>
@@ -14296,7 +14334,7 @@
       </c>
       <c r="L22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>3.2533285637654785E-2</v>
+        <v>3.2533285637654792E-2</v>
       </c>
       <c r="M22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
@@ -14304,7 +14342,7 @@
       </c>
       <c r="N22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>5.3828355286344581E-2</v>
+        <v>5.3828355286344588E-2</v>
       </c>
       <c r="O22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
@@ -14419,17 +14457,17 @@
         <v>0.5985270108655667</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="28">
         <f>'SYVbT-passenger'!C$3/SUM('SYVbT-passenger'!B$3:H$3)</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="E23" s="4">
         <f>MIN(1,D23*'India Assumptions'!$A$10)</f>
-        <v>6.7904679076017148E-3</v>
+        <v>6.7904679076017166E-3</v>
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="4"/>
@@ -14437,7 +14475,7 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="3"/>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="I23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,I$7))</f>
@@ -14457,7 +14495,7 @@
       </c>
       <c r="M23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>1.258233759349725E-2</v>
+        <v>1.2582337593497306E-2</v>
       </c>
       <c r="N23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
@@ -14576,7 +14614,7 @@
         <v>6.7904679076016827E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14733,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>5</v>
       </c>
@@ -14890,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -15046,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="31" t="s">
@@ -15205,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="35" t="s">
         <v>64</v>
@@ -15362,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -15524,7 +15562,7 @@
         <v>3.9901095073734613E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -15681,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -15838,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>5</v>
       </c>
@@ -15995,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -16151,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="31" t="s">
@@ -16310,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="35" t="s">
@@ -16468,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>15</v>
       </c>
@@ -16629,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16784,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -16939,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="C39" t="s">
         <v>5</v>
@@ -17095,7 +17133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="C40" t="s">
         <v>6</v>
@@ -17251,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="31" t="s">
@@ -17408,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="C42" s="35" t="s">
         <v>64</v>
@@ -17564,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
@@ -17725,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17880,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18035,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>5</v>
       </c>
@@ -18190,7 +18228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -18345,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="31" t="s">
@@ -18502,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="35" t="s">
@@ -18659,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="37" t="s">
@@ -18677,7 +18715,7 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -18689,7 +18727,7 @@
       </c>
       <c r="D51">
         <f>'SYVbT-passenger'!B$5/SUM('SYVbT-passenger'!B$5:H$5)</f>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -18700,11 +18738,11 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="5"/>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D51:$E51,$D$50:$E$50,I$7))</f>
-        <v>0.65234569321637303</v>
+        <v>0.65234569321637315</v>
       </c>
       <c r="J51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)-5))),TREND($D51:$E51,$D$50:$E$50,J$7))</f>
@@ -18716,7 +18754,7 @@
       </c>
       <c r="L51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)-5))),TREND($D51:$E51,$D$50:$E$50,L$7))</f>
-        <v>0.75549999999999995</v>
+        <v>0.75550000000000006</v>
       </c>
       <c r="M51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)-5))),TREND($D51:$E51,$D$50:$E$50,M$7))</f>
@@ -18728,7 +18766,7 @@
       </c>
       <c r="O51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)-5))),TREND($D51:$E51,$D$50:$E$50,O$7))</f>
-        <v>0.85865430678362686</v>
+        <v>0.85865430678362697</v>
       </c>
       <c r="P51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)-5))),TREND($D51:$E51,$D$50:$E$50,P$7))</f>
@@ -18839,7 +18877,7 @@
         <v>0.99993966005234269</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -18995,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -19151,13 +19189,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54">
         <f>'SYVbT-passenger'!E$5/SUM('SYVbT-passenger'!B$5:H$5)</f>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="E54">
         <v>0.6</v>
@@ -19168,7 +19206,7 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="7"/>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="I54">
         <f>IF($F54="s-curve",$D54+($E54-$D54)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D54:$E54,$D$50:$E$50,I$7))</f>
@@ -19307,7 +19345,7 @@
         <v>0.7585714285714289</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="C55" t="s">
         <v>6</v>
@@ -19464,7 +19502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="31" t="s">
@@ -19622,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="35" t="s">
         <v>64</v>
@@ -19779,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -19941,7 +19979,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="C59" t="s">
         <v>3</v>
@@ -20098,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="C60" t="s">
         <v>4</v>
@@ -20255,13 +20293,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61">
         <f>'SYVbT-freight'!E$5/SUM('SYVbT-freight'!B$5:H$5)</f>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="E61">
         <v>0.4</v>
@@ -20272,7 +20310,7 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="7"/>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="I61">
         <f>IF($F61="s-curve",$D61+($E61-$D61)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D61:$E61,$D$50:$E$50,I$7))</f>
@@ -20411,7 +20449,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>6</v>
       </c>
@@ -20567,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="31" t="s">
@@ -20725,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="35" t="s">
@@ -20883,7 +20921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -21044,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -21199,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -21354,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -21509,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -21664,7 +21702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="31" t="s">
@@ -21821,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="C71" s="35" t="s">
         <v>64</v>
@@ -21977,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>17</v>
       </c>
@@ -22138,7 +22176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -22293,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -22448,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>5</v>
       </c>
@@ -22603,7 +22641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>6</v>
       </c>
@@ -22758,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="31" t="s">
@@ -22915,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="35" t="s">
@@ -23072,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -23084,7 +23122,7 @@
       </c>
       <c r="D79" s="28">
         <f>'SYVbT-passenger'!B$7/SUM('SYVbT-passenger'!B$7:H$7)</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="E79" s="29">
         <f>'India Assumptions'!$A$27</f>
@@ -23096,19 +23134,19 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" ref="H79:H92" si="8">D79</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="I79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,I$7))</f>
-        <v>5.065932652530121E-2</v>
+        <v>5.0659326525301224E-2</v>
       </c>
       <c r="J79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,J$7))</f>
-        <v>5.4446182352703411E-2</v>
+        <v>5.4446182352703418E-2</v>
       </c>
       <c r="K79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,K$7))</f>
-        <v>5.9475863471248468E-2</v>
+        <v>5.9475863471248475E-2</v>
       </c>
       <c r="L79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,L$7))</f>
@@ -23116,19 +23154,19 @@
       </c>
       <c r="M79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,M$7))</f>
-        <v>7.4833692245528313E-2</v>
+        <v>7.4833692245528327E-2</v>
       </c>
       <c r="N79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,N$7))</f>
-        <v>8.615462223712117E-2</v>
+        <v>8.6154622237121184E-2</v>
       </c>
       <c r="O79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,O$7))</f>
-        <v>0.10068406698595314</v>
+        <v>0.10068406698595316</v>
       </c>
       <c r="P79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,P$7))</f>
-        <v>0.11904152281815424</v>
+        <v>0.11904152281815425</v>
       </c>
       <c r="Q79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,Q$7))</f>
@@ -23148,7 +23186,7 @@
       </c>
       <c r="U79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,U$7))</f>
-        <v>0.27804772946294665</v>
+        <v>0.2780477294629467</v>
       </c>
       <c r="V79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,V$7))</f>
@@ -23235,7 +23273,7 @@
         <v>0.59861419268914939</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -23392,13 +23430,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="28">
         <f>'SYVbT-passenger'!D$7/SUM('SYVbT-passenger'!B$7:H$7)</f>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="E81" s="10">
         <f>MIN(1,D81*'India Assumptions'!$A$4)</f>
@@ -23410,146 +23448,146 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" si="8"/>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="I81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,I$7))</f>
-        <v>0.96162330877778879</v>
+        <v>0.96162330877778857</v>
       </c>
       <c r="J81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,J$7))</f>
-        <v>0.96278623881482583</v>
+        <v>0.96278623881482517</v>
       </c>
       <c r="K81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,K$7))</f>
-        <v>0.96394916885186244</v>
+        <v>0.96394916885186221</v>
       </c>
       <c r="L81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,L$7))</f>
-        <v>0.96511209888889904</v>
+        <v>0.96511209888889882</v>
       </c>
       <c r="M81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,M$7))</f>
-        <v>0.96627502892593564</v>
+        <v>0.96627502892593542</v>
       </c>
       <c r="N81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,N$7))</f>
-        <v>0.96743795896297224</v>
+        <v>0.96743795896297202</v>
       </c>
       <c r="O81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,O$7))</f>
-        <v>0.96860088900000929</v>
+        <v>0.96860088900000862</v>
       </c>
       <c r="P81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,P$7))</f>
-        <v>0.96976381903704589</v>
+        <v>0.96976381903704567</v>
       </c>
       <c r="Q81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Q$7))</f>
-        <v>0.9709267490740825</v>
+        <v>0.97092674907408227</v>
       </c>
       <c r="R81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,R$7))</f>
-        <v>0.9720896791111191</v>
+        <v>0.97208967911111888</v>
       </c>
       <c r="S81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,S$7))</f>
-        <v>0.97325260914815614</v>
+        <v>0.97325260914815548</v>
       </c>
       <c r="T81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,T$7))</f>
-        <v>0.97441553918519275</v>
+        <v>0.97441553918519253</v>
       </c>
       <c r="U81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,U$7))</f>
-        <v>0.97557846922222935</v>
+        <v>0.97557846922222913</v>
       </c>
       <c r="V81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,V$7))</f>
-        <v>0.97674139925926595</v>
+        <v>0.97674139925926573</v>
       </c>
       <c r="W81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,W$7))</f>
-        <v>0.97790432929630255</v>
+        <v>0.97790432929630233</v>
       </c>
       <c r="X81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,X$7))</f>
-        <v>0.9790672593333396</v>
+        <v>0.97906725933333894</v>
       </c>
       <c r="Y81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Y$7))</f>
-        <v>0.9802301893703762</v>
+        <v>0.98023018937037598</v>
       </c>
       <c r="Z81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Z$7))</f>
-        <v>0.98139311940741281</v>
+        <v>0.98139311940741258</v>
       </c>
       <c r="AA81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AA$7))</f>
-        <v>0.98255604944444941</v>
+        <v>0.98255604944444919</v>
       </c>
       <c r="AB81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AB$7))</f>
-        <v>0.98371897948148601</v>
+        <v>0.98371897948148579</v>
       </c>
       <c r="AC81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AC$7))</f>
-        <v>0.98488190951852306</v>
+        <v>0.98488190951852284</v>
       </c>
       <c r="AD81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AD$7))</f>
-        <v>0.98604483955555966</v>
+        <v>0.98604483955555944</v>
       </c>
       <c r="AE81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AE$7))</f>
-        <v>0.98720776959259626</v>
+        <v>0.98720776959259604</v>
       </c>
       <c r="AF81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AF$7))</f>
-        <v>0.98837069962963287</v>
+        <v>0.98837069962963264</v>
       </c>
       <c r="AG81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AG$7))</f>
-        <v>0.98953362966666991</v>
+        <v>0.98953362966666925</v>
       </c>
       <c r="AH81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AH$7))</f>
-        <v>0.99069655970370651</v>
+        <v>0.99069655970370629</v>
       </c>
       <c r="AI81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AI$7))</f>
-        <v>0.99185948974074312</v>
+        <v>0.99185948974074289</v>
       </c>
       <c r="AJ81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AJ$7))</f>
-        <v>0.99302241977777972</v>
+        <v>0.9930224197777795</v>
       </c>
       <c r="AK81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AK$7))</f>
-        <v>0.99418534981481632</v>
+        <v>0.9941853498148161</v>
       </c>
       <c r="AL81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AL$7))</f>
-        <v>0.99534827985185337</v>
+        <v>0.99534827985185315</v>
       </c>
       <c r="AM81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AM$7))</f>
-        <v>0.99651120988888997</v>
+        <v>0.99651120988888975</v>
       </c>
       <c r="AN81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AN$7))</f>
-        <v>0.99767413992592657</v>
+        <v>0.99767413992592635</v>
       </c>
       <c r="AO81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AO$7))</f>
-        <v>0.99883706996296318</v>
+        <v>0.99883706996296295</v>
       </c>
       <c r="AP81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AP$7))</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>5</v>
       </c>
@@ -23706,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>6</v>
       </c>
@@ -23862,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="31" t="s">
@@ -24021,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="C85" s="35" t="s">
         <v>64</v>
@@ -24178,7 +24216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>18</v>
       </c>
@@ -24340,7 +24378,7 @@
         <v>0.29934166408454599</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -24497,7 +24535,7 @@
         <v>5.6534585978000873E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>4</v>
       </c>
@@ -24654,7 +24692,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>5</v>
       </c>
@@ -24811,7 +24849,7 @@
         <v>0.73306481534959644</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>6</v>
       </c>
@@ -24967,7 +25005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="31" t="s">
@@ -25126,7 +25164,7 @@
         <v>4.3324210184600531E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="35" t="s">
@@ -25294,7 +25332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25304,12 +25342,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -25416,7 +25454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -25557,7 +25595,7 @@
         <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -25698,7 +25736,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -25839,13 +25877,13 @@
         <v>0.99136833821006931</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H11</f>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="C5">
         <f>'India Data'!I11</f>
@@ -25980,7 +26018,7 @@
         <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -26121,7 +26159,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -26262,7 +26300,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -26409,7 +26447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26419,12 +26457,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -26531,7 +26569,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -26672,7 +26710,7 @@
         <v>0.14949977890388799</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -26813,7 +26851,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -26954,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -27095,7 +27133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -27236,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -27377,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -27524,7 +27562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27534,12 +27572,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -27646,13 +27684,13 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H22</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="C2">
         <f>'India Data'!I22</f>
@@ -27668,7 +27706,7 @@
       </c>
       <c r="F2">
         <f>'India Data'!L22</f>
-        <v>3.2533285637654785E-2</v>
+        <v>3.2533285637654792E-2</v>
       </c>
       <c r="G2">
         <f>'India Data'!M22</f>
@@ -27676,7 +27714,7 @@
       </c>
       <c r="H2">
         <f>'India Data'!N22</f>
-        <v>5.3828355286344581E-2</v>
+        <v>5.3828355286344588E-2</v>
       </c>
       <c r="I2">
         <f>'India Data'!O22</f>
@@ -27787,13 +27825,13 @@
         <v>0.5980133911970904</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <f>'India Data'!H23</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="C3">
         <f>'India Data'!I23</f>
@@ -27813,7 +27851,7 @@
       </c>
       <c r="G3">
         <f>'India Data'!M23</f>
-        <v>1.258233759349725E-2</v>
+        <v>1.2582337593497306E-2</v>
       </c>
       <c r="H3">
         <f>'India Data'!N23</f>
@@ -27928,7 +27966,7 @@
         <v>6.9901875519429169E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -28069,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -28210,7 +28248,7 @@
         <v>0.99947465537210545</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -28351,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -28492,7 +28530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -28639,7 +28677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -28647,12 +28685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -28759,7 +28797,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -28900,7 +28938,7 @@
         <v>3.9866607707703471E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -29041,7 +29079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -29182,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -29323,7 +29361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -29464,7 +29502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -29605,7 +29643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE96F17-E448-49AB-88CD-BB1C8EA05DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1216CBA-52E7-4FDF-ACC7-29E135C63D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2077,22 +2077,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="73.21875" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
@@ -2111,23 +2111,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="E5" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2017</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -2167,125 +2167,125 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>2019</v>
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2311,12 +2311,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -3426,12 +3426,12 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -4539,12 +4539,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0.99991855310632394</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0.75064285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -5654,12 +5654,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -6793,16 +6793,17 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -6909,990 +6910,887 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>'India Data'!H65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!B2</f>
+        <v>1.8960777587192685E-2</v>
       </c>
       <c r="C2">
-        <f>'India Data'!I65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!C2</f>
+        <v>3.0488773403353441E-2</v>
       </c>
       <c r="D2">
-        <f>'India Data'!J65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!D2</f>
+        <v>3.4414674053613259E-2</v>
       </c>
       <c r="E2">
-        <f>'India Data'!K65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!E2</f>
+        <v>3.9629033742464001E-2</v>
       </c>
       <c r="F2">
-        <f>'India Data'!L65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!F2</f>
+        <v>4.6517070060534502E-2</v>
       </c>
       <c r="G2">
-        <f>'India Data'!M65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!G2</f>
+        <v>5.5550767423274777E-2</v>
       </c>
       <c r="H2">
-        <f>'India Data'!N65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!H2</f>
+        <v>6.7287376483997755E-2</v>
       </c>
       <c r="I2">
-        <f>'India Data'!O65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!I2</f>
+        <v>8.2350309742400679E-2</v>
       </c>
       <c r="J2">
-        <f>'India Data'!P65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!J2</f>
+        <v>0.10138181003540078</v>
       </c>
       <c r="K2">
-        <f>'India Data'!Q65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!K2</f>
+        <v>0.12495716208788703</v>
       </c>
       <c r="L2">
-        <f>'India Data'!R65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!L2</f>
+        <v>0.15345695739075971</v>
       </c>
       <c r="M2">
-        <f>'India Data'!S65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!M2</f>
+        <v>0.18691045381999558</v>
       </c>
       <c r="N2">
-        <f>'India Data'!T65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!N2</f>
+        <v>0.22484836188463839</v>
       </c>
       <c r="O2">
-        <f>'India Data'!U65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!O2</f>
+        <v>0.26622636671089761</v>
       </c>
       <c r="P2">
-        <f>'India Data'!V65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!P2</f>
+        <v>0.30948038879359629</v>
       </c>
       <c r="Q2">
-        <f>'India Data'!W65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Q2</f>
+        <v>0.35273441087629498</v>
       </c>
       <c r="R2">
-        <f>'India Data'!X65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!R2</f>
+        <v>0.39411241570255423</v>
       </c>
       <c r="S2">
-        <f>'India Data'!Y65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!S2</f>
+        <v>0.43205032376719699</v>
       </c>
       <c r="T2">
-        <f>'India Data'!Z65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!T2</f>
+        <v>0.46550382019643288</v>
       </c>
       <c r="U2">
-        <f>'India Data'!AA65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!U2</f>
+        <v>0.49400361549930555</v>
       </c>
       <c r="V2">
-        <f>'India Data'!AB65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!V2</f>
+        <v>0.51757896755179189</v>
       </c>
       <c r="W2">
-        <f>'India Data'!AC65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!W2</f>
+        <v>0.53661046784479194</v>
       </c>
       <c r="X2">
-        <f>'India Data'!AD65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!X2</f>
+        <v>0.55167340110319496</v>
       </c>
       <c r="Y2">
-        <f>'India Data'!AE65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Y2</f>
+        <v>0.5634100101639179</v>
       </c>
       <c r="Z2">
-        <f>'India Data'!AF65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Z2</f>
+        <v>0.57244370752665819</v>
       </c>
       <c r="AA2">
-        <f>'India Data'!AG65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AA2</f>
+        <v>0.57933174384472863</v>
       </c>
       <c r="AB2">
-        <f>'India Data'!AH65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AB2</f>
+        <v>0.58454610353357939</v>
       </c>
       <c r="AC2">
-        <f>'India Data'!AI65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AC2</f>
+        <v>0.58847200418383927</v>
       </c>
       <c r="AD2">
-        <f>'India Data'!AJ65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AD2</f>
+        <v>0.59141570811303845</v>
       </c>
       <c r="AE2">
-        <f>'India Data'!AK65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AE2</f>
+        <v>0.59361615539722601</v>
       </c>
       <c r="AF2">
-        <f>'India Data'!AL65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AF2</f>
+        <v>0.59525722600427877</v>
       </c>
       <c r="AG2">
-        <f>'India Data'!AM65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AG2</f>
+        <v>0.59647901765335387</v>
       </c>
       <c r="AH2">
-        <f>'India Data'!AN65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AH2</f>
+        <v>0.59738748893881111</v>
       </c>
       <c r="AI2">
-        <f>'India Data'!AO65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AI2</f>
+        <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <f>'India Data'!H66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!B3</f>
+        <v>2.6163522012578631E-2</v>
       </c>
       <c r="C3">
-        <f>'India Data'!I66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!C3</f>
+        <v>2.5778764335922966E-2</v>
       </c>
       <c r="D3">
-        <f>'India Data'!J66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!D3</f>
+        <v>2.5394006659267387E-2</v>
       </c>
       <c r="E3">
-        <f>'India Data'!K66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!E3</f>
+        <v>2.5009248982611809E-2</v>
       </c>
       <c r="F3">
-        <f>'India Data'!L66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!F3</f>
+        <v>2.4624491305956231E-2</v>
       </c>
       <c r="G3">
-        <f>'India Data'!M66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!G3</f>
+        <v>2.4239733629300764E-2</v>
       </c>
       <c r="H3">
-        <f>'India Data'!N66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!H3</f>
+        <v>2.3854975952645185E-2</v>
       </c>
       <c r="I3">
-        <f>'India Data'!O66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!I3</f>
+        <v>2.3470218275989607E-2</v>
       </c>
       <c r="J3">
-        <f>'India Data'!P66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!J3</f>
+        <v>2.3085460599334029E-2</v>
       </c>
       <c r="K3">
-        <f>'India Data'!Q66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!K3</f>
+        <v>2.2700702922678451E-2</v>
       </c>
       <c r="L3">
-        <f>'India Data'!R66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!L3</f>
+        <v>2.2315945246022872E-2</v>
       </c>
       <c r="M3">
-        <f>'India Data'!S66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!M3</f>
+        <v>2.1931187569367294E-2</v>
       </c>
       <c r="N3">
-        <f>'India Data'!T66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!N3</f>
+        <v>2.1546429892711716E-2</v>
       </c>
       <c r="O3">
-        <f>'India Data'!U66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!O3</f>
+        <v>2.1161672216056138E-2</v>
       </c>
       <c r="P3">
-        <f>'India Data'!V66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!P3</f>
+        <v>2.0776914539400559E-2</v>
       </c>
       <c r="Q3">
-        <f>'India Data'!W66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Q3</f>
+        <v>2.0392156862744981E-2</v>
       </c>
       <c r="R3">
-        <f>'India Data'!X66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!R3</f>
+        <v>2.0007399186089514E-2</v>
       </c>
       <c r="S3">
-        <f>'India Data'!Y66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!S3</f>
+        <v>1.9622641509433936E-2</v>
       </c>
       <c r="T3">
-        <f>'India Data'!Z66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!T3</f>
+        <v>1.9237883832778357E-2</v>
       </c>
       <c r="U3">
-        <f>'India Data'!AA66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!U3</f>
+        <v>1.8853126156122779E-2</v>
       </c>
       <c r="V3">
-        <f>'India Data'!AB66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!V3</f>
+        <v>1.8468368479467201E-2</v>
       </c>
       <c r="W3">
-        <f>'India Data'!AC66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!W3</f>
+        <v>1.8083610802811623E-2</v>
       </c>
       <c r="X3">
-        <f>'India Data'!AD66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!X3</f>
+        <v>1.7698853126156044E-2</v>
       </c>
       <c r="Y3">
-        <f>'India Data'!AE66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Y3</f>
+        <v>1.7314095449500466E-2</v>
       </c>
       <c r="Z3">
-        <f>'India Data'!AF66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Z3</f>
+        <v>1.6929337772844888E-2</v>
       </c>
       <c r="AA3">
-        <f>'India Data'!AG66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AA3</f>
+        <v>1.654458009618931E-2</v>
       </c>
       <c r="AB3">
-        <f>'India Data'!AH66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AB3</f>
+        <v>1.6159822419533731E-2</v>
       </c>
       <c r="AC3">
-        <f>'India Data'!AI66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AC3</f>
+        <v>1.5775064742878264E-2</v>
       </c>
       <c r="AD3">
-        <f>'India Data'!AJ66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AD3</f>
+        <v>1.5390307066222686E-2</v>
       </c>
       <c r="AE3">
-        <f>'India Data'!AK66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AE3</f>
+        <v>1.5005549389567108E-2</v>
       </c>
       <c r="AF3">
-        <f>'India Data'!AL66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AF3</f>
+        <v>1.4620791712911529E-2</v>
       </c>
       <c r="AG3">
-        <f>'India Data'!AM66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AG3</f>
+        <v>1.4236034036255951E-2</v>
       </c>
       <c r="AH3">
-        <f>'India Data'!AN66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AH3</f>
+        <v>1.3851276359600373E-2</v>
       </c>
       <c r="AI3">
-        <f>'India Data'!AO66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AI3</f>
+        <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <f>'India Data'!H67</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>'India Data'!I67</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>'India Data'!J67</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>'India Data'!K67</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>'India Data'!L67</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>'India Data'!M67</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>'India Data'!N67</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>'India Data'!O67</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>'India Data'!P67</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>'India Data'!Q67</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>'India Data'!R67</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>'India Data'!S67</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'India Data'!T67</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>'India Data'!U67</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>'India Data'!V67</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>'India Data'!W67</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>'India Data'!X67</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>'India Data'!Y67</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>'India Data'!Z67</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>'India Data'!AA67</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>'India Data'!AB67</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>'India Data'!AC67</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>'India Data'!AD67</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>'India Data'!AE67</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>'India Data'!AF67</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>'India Data'!AG67</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>'India Data'!AH67</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>'India Data'!AI67</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>'India Data'!AJ67</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>'India Data'!AK67</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>'India Data'!AL67</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>'India Data'!AM67</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>'India Data'!AN67</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>'India Data'!AO67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>'India Data'!H68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!B5</f>
+        <v>0.22218867924528304</v>
       </c>
       <c r="C5">
-        <f>'India Data'!I68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!C5</f>
+        <v>0.22872364039955428</v>
       </c>
       <c r="D5">
-        <f>'India Data'!J68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!D5</f>
+        <v>0.23525860155382716</v>
       </c>
       <c r="E5">
-        <f>'India Data'!K68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!E5</f>
+        <v>0.24179356270810004</v>
       </c>
       <c r="F5">
-        <f>'India Data'!L68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!F5</f>
+        <v>0.24832852386237469</v>
       </c>
       <c r="G5">
-        <f>'India Data'!M68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!G5</f>
+        <v>0.25486348501664757</v>
       </c>
       <c r="H5">
-        <f>'India Data'!N68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!H5</f>
+        <v>0.26139844617092045</v>
       </c>
       <c r="I5">
-        <f>'India Data'!O68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!I5</f>
+        <v>0.26793340732519333</v>
       </c>
       <c r="J5">
-        <f>'India Data'!P68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!J5</f>
+        <v>0.27446836847946621</v>
       </c>
       <c r="K5">
-        <f>'India Data'!Q68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!K5</f>
+        <v>0.28100332963373909</v>
       </c>
       <c r="L5">
-        <f>'India Data'!R68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!L5</f>
+        <v>0.28753829078801196</v>
       </c>
       <c r="M5">
-        <f>'India Data'!S68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!M5</f>
+        <v>0.29407325194228484</v>
       </c>
       <c r="N5">
-        <f>'India Data'!T68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!N5</f>
+        <v>0.30060821309655772</v>
       </c>
       <c r="O5">
-        <f>'India Data'!U68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!O5</f>
+        <v>0.3071431742508306</v>
       </c>
       <c r="P5">
-        <f>'India Data'!V68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!P5</f>
+        <v>0.31367813540510348</v>
       </c>
       <c r="Q5">
-        <f>'India Data'!W68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Q5</f>
+        <v>0.32021309655937813</v>
       </c>
       <c r="R5">
-        <f>'India Data'!X68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!R5</f>
+        <v>0.32674805771365101</v>
       </c>
       <c r="S5">
-        <f>'India Data'!Y68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!S5</f>
+        <v>0.33328301886792389</v>
       </c>
       <c r="T5">
-        <f>'India Data'!Z68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!T5</f>
+        <v>0.33981798002219676</v>
       </c>
       <c r="U5">
-        <f>'India Data'!AA68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!U5</f>
+        <v>0.34635294117646964</v>
       </c>
       <c r="V5">
-        <f>'India Data'!AB68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!V5</f>
+        <v>0.35288790233074252</v>
       </c>
       <c r="W5">
-        <f>'India Data'!AC68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!W5</f>
+        <v>0.3594228634850154</v>
       </c>
       <c r="X5">
-        <f>'India Data'!AD68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!X5</f>
+        <v>0.36595782463928828</v>
       </c>
       <c r="Y5">
-        <f>'India Data'!AE68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Y5</f>
+        <v>0.37249278579356115</v>
       </c>
       <c r="Z5">
-        <f>'India Data'!AF68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Z5</f>
+        <v>0.37902774694783403</v>
       </c>
       <c r="AA5">
-        <f>'India Data'!AG68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AA5</f>
+        <v>0.38556270810210691</v>
       </c>
       <c r="AB5">
-        <f>'India Data'!AH68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AB5</f>
+        <v>0.39209766925637979</v>
       </c>
       <c r="AC5">
-        <f>'India Data'!AI68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AC5</f>
+        <v>0.39863263041065444</v>
       </c>
       <c r="AD5">
-        <f>'India Data'!AJ68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AD5</f>
+        <v>0.40516759156492732</v>
       </c>
       <c r="AE5">
-        <f>'India Data'!AK68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AE5</f>
+        <v>0.4117025527192002</v>
       </c>
       <c r="AF5">
-        <f>'India Data'!AL68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AF5</f>
+        <v>0.41823751387347308</v>
       </c>
       <c r="AG5">
-        <f>'India Data'!AM68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AG5</f>
+        <v>0.42477247502774595</v>
       </c>
       <c r="AH5">
-        <f>'India Data'!AN68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AH5</f>
+        <v>0.43130743618201883</v>
       </c>
       <c r="AI5">
-        <f>'India Data'!AO68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AI5</f>
+        <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'India Data'!H69</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'India Data'!I69</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'India Data'!J69</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'India Data'!K69</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'India Data'!L69</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'India Data'!M69</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>'India Data'!N69</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>'India Data'!O69</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>'India Data'!P69</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>'India Data'!Q69</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>'India Data'!R69</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>'India Data'!S69</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>'India Data'!T69</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>'India Data'!U69</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>'India Data'!V69</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>'India Data'!W69</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>'India Data'!X69</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>'India Data'!Y69</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>'India Data'!Z69</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>'India Data'!AA69</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>'India Data'!AB69</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>'India Data'!AC69</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>'India Data'!AD69</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>'India Data'!AE69</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>'India Data'!AF69</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>'India Data'!AG69</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>'India Data'!AH69</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>'India Data'!AI69</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>'India Data'!AJ69</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>'India Data'!AK69</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>'India Data'!AL69</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>'India Data'!AM69</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>'India Data'!AN69</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>'India Data'!AO69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <f>'India Data'!H70</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'India Data'!I70</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'India Data'!J70</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'India Data'!K70</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'India Data'!L70</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'India Data'!M70</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>'India Data'!N70</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>'India Data'!O70</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>'India Data'!P70</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>'India Data'!Q70</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>'India Data'!R70</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>'India Data'!S70</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>'India Data'!T70</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>'India Data'!U70</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>'India Data'!V70</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>'India Data'!W70</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>'India Data'!X70</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>'India Data'!Y70</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>'India Data'!Z70</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>'India Data'!AA70</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>'India Data'!AB70</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>'India Data'!AC70</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>'India Data'!AD70</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>'India Data'!AE70</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>'India Data'!AF70</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>'India Data'!AG70</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>'India Data'!AH70</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>'India Data'!AI70</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>'India Data'!AJ70</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>'India Data'!AK70</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>'India Data'!AL70</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>'India Data'!AM70</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>'India Data'!AN70</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>'India Data'!AO70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B8">
-        <f>'India Data'!H71</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>'India Data'!I71</f>
+        <f>'MPNVbT-LDVs-psgr'!C8</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>'India Data'!J71</f>
+        <f>'MPNVbT-LDVs-psgr'!D8</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>'India Data'!K71</f>
+        <f>'MPNVbT-LDVs-psgr'!E8</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>'India Data'!L71</f>
+        <f>'MPNVbT-LDVs-psgr'!F8</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>'India Data'!M71</f>
+        <f>'MPNVbT-LDVs-psgr'!G8</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>'India Data'!N71</f>
+        <f>'MPNVbT-LDVs-psgr'!H8</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>'India Data'!O71</f>
+        <f>'MPNVbT-LDVs-psgr'!I8</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>'India Data'!P71</f>
+        <f>'MPNVbT-LDVs-psgr'!J8</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>'India Data'!Q71</f>
+        <f>'MPNVbT-LDVs-psgr'!K8</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>'India Data'!R71</f>
+        <f>'MPNVbT-LDVs-psgr'!L8</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>'India Data'!S71</f>
+        <f>'MPNVbT-LDVs-psgr'!M8</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>'India Data'!T71</f>
+        <f>'MPNVbT-LDVs-psgr'!N8</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>'India Data'!U71</f>
+        <f>'MPNVbT-LDVs-psgr'!O8</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>'India Data'!V71</f>
+        <f>'MPNVbT-LDVs-psgr'!P8</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>'India Data'!W71</f>
+        <f>'MPNVbT-LDVs-psgr'!Q8</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>'India Data'!X71</f>
+        <f>'MPNVbT-LDVs-psgr'!R8</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>'India Data'!Y71</f>
+        <f>'MPNVbT-LDVs-psgr'!S8</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>'India Data'!Z71</f>
+        <f>'MPNVbT-LDVs-psgr'!T8</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>'India Data'!AA71</f>
+        <f>'MPNVbT-LDVs-psgr'!U8</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>'India Data'!AB71</f>
+        <f>'MPNVbT-LDVs-psgr'!V8</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>'India Data'!AC71</f>
+        <f>'MPNVbT-LDVs-psgr'!W8</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>'India Data'!AD71</f>
+        <f>'MPNVbT-LDVs-psgr'!X8</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>'India Data'!AE71</f>
+        <f>'MPNVbT-LDVs-psgr'!Y8</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>'India Data'!AF71</f>
+        <f>'MPNVbT-LDVs-psgr'!Z8</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>'India Data'!AG71</f>
+        <f>'MPNVbT-LDVs-psgr'!AA8</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>'India Data'!AH71</f>
+        <f>'MPNVbT-LDVs-psgr'!AB8</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>'India Data'!AI71</f>
+        <f>'MPNVbT-LDVs-psgr'!AC8</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>'India Data'!AJ71</f>
+        <f>'MPNVbT-LDVs-psgr'!AD8</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>'India Data'!AK71</f>
+        <f>'MPNVbT-LDVs-psgr'!AE8</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>'India Data'!AL71</f>
+        <f>'MPNVbT-LDVs-psgr'!AF8</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>'India Data'!AM71</f>
+        <f>'MPNVbT-LDVs-psgr'!AG8</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>'India Data'!AN71</f>
+        <f>'MPNVbT-LDVs-psgr'!AH8</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>'India Data'!AO71</f>
+        <f>'MPNVbT-LDVs-psgr'!AI8</f>
         <v>0</v>
       </c>
     </row>
@@ -7912,12 +7810,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +7922,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8165,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8306,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8447,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8588,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -8729,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -8870,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -9027,12 +8925,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -9139,7 +9037,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9280,7 +9178,7 @@
         <v>0.59813097263345971</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -9421,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -9562,7 +9460,7 @@
         <v>0.99883706996296295</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -9703,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -9844,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -9985,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -10142,12 +10040,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -10254,7 +10152,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10395,7 +10293,7 @@
         <v>0.29911210755440121</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -10536,7 +10434,7 @@
         <v>5.8197367918530585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -10677,7 +10575,7 @@
         <v>0.78823529411764781</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -10818,7 +10716,7 @@
         <v>0.72228445041798395</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -10959,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -11100,7 +10998,7 @@
         <v>4.4598451660617933E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -11254,14 +11152,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="2" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11287,7 +11185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11313,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11339,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11365,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11391,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11417,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -11452,18 +11350,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="2" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11489,7 +11387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11515,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11541,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11567,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11593,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11619,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -11658,13 +11556,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -11674,7 +11572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -11682,7 +11580,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11690,7 +11588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -11698,84 +11596,84 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11783,7 +11681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <f>'SYVbT-passenger'!B2/SUM('SYVbT-passenger'!B2:F2)</f>
         <v>1.9470186233296546E-2</v>
@@ -11792,7 +11690,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A14*A17</f>
         <v>0.3</v>
@@ -11801,7 +11699,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <f>A20*A26</f>
         <v>0.6</v>
@@ -11810,22 +11708,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -11833,24 +11731,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -11873,18 +11771,18 @@
       <selection activeCell="H51" sqref="H51:AP64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11896,7 +11794,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11907,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -11918,7 +11816,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11932,7 +11830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -11940,7 +11838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11957,7 +11855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -12080,7 +11978,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12243,7 +12141,7 @@
         <v>0.5985633089637491</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12400,7 +12298,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -12557,7 +12455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -12714,7 +12612,7 @@
         <v>0.44437735849056459</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -12871,7 +12769,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="31" t="s">
@@ -13030,7 +12928,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="35" t="s">
@@ -13188,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -13350,7 +13248,7 @@
         <v>0.1496291065265048</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -13507,7 +13405,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -13664,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -13821,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -13977,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="31" t="s">
@@ -14136,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="35" t="s">
@@ -14294,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -14457,7 +14355,7 @@
         <v>0.5985270108655667</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -14614,7 +14512,7 @@
         <v>6.7904679076016827E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14771,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>5</v>
       </c>
@@ -14928,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -15084,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="31" t="s">
@@ -15243,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="35" t="s">
         <v>64</v>
@@ -15400,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -15562,7 +15460,7 @@
         <v>3.9901095073734613E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -15719,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -15876,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>5</v>
       </c>
@@ -16033,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -16189,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="31" t="s">
@@ -16348,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="35" t="s">
@@ -16506,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>15</v>
       </c>
@@ -16667,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16822,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -16977,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" t="s">
         <v>5</v>
@@ -17133,7 +17031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" t="s">
         <v>6</v>
@@ -17289,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="31" t="s">
@@ -17446,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="35" t="s">
         <v>64</v>
@@ -17602,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
@@ -17763,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17918,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18073,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>5</v>
       </c>
@@ -18228,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -18383,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="31" t="s">
@@ -18540,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="35" t="s">
@@ -18697,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="37" t="s">
@@ -18715,7 +18613,7 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -18877,7 +18775,7 @@
         <v>0.99993966005234269</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -19189,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>5</v>
       </c>
@@ -19345,7 +19243,7 @@
         <v>0.7585714285714289</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" t="s">
         <v>6</v>
@@ -19502,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="31" t="s">
@@ -19660,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="35" t="s">
         <v>64</v>
@@ -19817,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -19979,7 +19877,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" t="s">
         <v>3</v>
@@ -20136,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="C60" t="s">
         <v>4</v>
@@ -20293,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>5</v>
       </c>
@@ -20449,7 +20347,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>6</v>
       </c>
@@ -20605,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="31" t="s">
@@ -20763,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="35" t="s">
@@ -20921,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -21082,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -21237,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -21392,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -21547,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -21702,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="31" t="s">
@@ -21859,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="35" t="s">
         <v>64</v>
@@ -22015,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>17</v>
       </c>
@@ -22176,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -22331,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -22486,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>5</v>
       </c>
@@ -22641,7 +22539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>6</v>
       </c>
@@ -22796,7 +22694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="31" t="s">
@@ -22953,7 +22851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="35" t="s">
@@ -23110,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -23273,7 +23171,7 @@
         <v>0.59861419268914939</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -23430,7 +23328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>4</v>
       </c>
@@ -23587,7 +23485,7 @@
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>5</v>
       </c>
@@ -23744,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>6</v>
       </c>
@@ -23900,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="31" t="s">
@@ -24059,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
       <c r="C85" s="35" t="s">
         <v>64</v>
@@ -24216,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>18</v>
       </c>
@@ -24378,7 +24276,7 @@
         <v>0.29934166408454599</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -24535,7 +24433,7 @@
         <v>5.6534585978000873E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>4</v>
       </c>
@@ -24692,7 +24590,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>5</v>
       </c>
@@ -24849,7 +24747,7 @@
         <v>0.73306481534959644</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>6</v>
       </c>
@@ -25005,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="31" t="s">
@@ -25164,7 +25062,7 @@
         <v>4.3324210184600531E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="35" t="s">
@@ -25342,12 +25240,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -25454,7 +25352,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -25595,7 +25493,7 @@
         <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -25736,7 +25634,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -25877,7 +25775,7 @@
         <v>0.99136833821006931</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -26018,7 +25916,7 @@
         <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -26159,7 +26057,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -26300,7 +26198,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -26457,12 +26355,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -26569,7 +26467,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -26710,7 +26608,7 @@
         <v>0.14949977890388799</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -26851,7 +26749,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -26992,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -27133,7 +27031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -27274,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -27415,7 +27313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -27572,12 +27470,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -27684,7 +27582,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -27825,7 +27723,7 @@
         <v>0.5980133911970904</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -27966,7 +27864,7 @@
         <v>6.9901875519429169E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -28107,7 +28005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -28248,7 +28146,7 @@
         <v>0.99947465537210545</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -28389,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -28530,7 +28428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -28685,12 +28583,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -28797,7 +28695,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -28938,7 +28836,7 @@
         <v>3.9866607707703471E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -29079,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -29220,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -29361,7 +29259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -29502,7 +29400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -29643,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1216CBA-52E7-4FDF-ACC7-29E135C63D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,12 +31,15 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId16"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -342,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -639,15 +643,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1826,6 +1830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1861,6 +1882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2036,25 +2074,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.265625" customWidth="1"/>
-    <col min="5" max="5" width="73.265625" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
@@ -2073,23 +2111,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="E5" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2097,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2017</v>
       </c>
@@ -2113,7 +2151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -2129,133 +2167,133 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>2019</v>
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId1" display="https://www.fame-india.gov.in/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2263,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2273,12 +2311,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2423,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -2949,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -3231,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -3378,7 +3416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3388,12 +3426,12 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3538,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -4346,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -4493,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4501,12 +4539,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -4613,17 +4651,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H51</f>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C2">
         <f>'India Data'!I51</f>
-        <v>0.65234569321637303</v>
+        <v>0.65234569321637315</v>
       </c>
       <c r="D2">
         <f>'India Data'!J51</f>
@@ -4635,7 +4673,7 @@
       </c>
       <c r="F2">
         <f>'India Data'!L51</f>
-        <v>0.75549999999999995</v>
+        <v>0.75550000000000006</v>
       </c>
       <c r="G2">
         <f>'India Data'!M51</f>
@@ -4647,7 +4685,7 @@
       </c>
       <c r="I2">
         <f>'India Data'!O51</f>
-        <v>0.85865430678362686</v>
+        <v>0.85865430678362697</v>
       </c>
       <c r="J2">
         <f>'India Data'!P51</f>
@@ -4754,7 +4792,7 @@
         <v>0.99991855310632394</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -5036,13 +5074,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H54</f>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="C5">
         <f>'India Data'!I54</f>
@@ -5177,7 +5215,7 @@
         <v>0.75064285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -5318,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -5459,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -5606,7 +5644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5616,12 +5654,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5911,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -6018,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -6163,13 +6201,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H61</f>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="C5">
         <f>'India Data'!I61</f>
@@ -6308,7 +6346,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -6453,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -6598,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -6749,22 +6787,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -6871,990 +6910,887 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>'India Data'!H65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!B2</f>
+        <v>1.8960777587192685E-2</v>
       </c>
       <c r="C2">
-        <f>'India Data'!I65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!C2</f>
+        <v>3.0488773403353441E-2</v>
       </c>
       <c r="D2">
-        <f>'India Data'!J65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!D2</f>
+        <v>3.4414674053613259E-2</v>
       </c>
       <c r="E2">
-        <f>'India Data'!K65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!E2</f>
+        <v>3.9629033742464001E-2</v>
       </c>
       <c r="F2">
-        <f>'India Data'!L65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!F2</f>
+        <v>4.6517070060534502E-2</v>
       </c>
       <c r="G2">
-        <f>'India Data'!M65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!G2</f>
+        <v>5.5550767423274777E-2</v>
       </c>
       <c r="H2">
-        <f>'India Data'!N65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!H2</f>
+        <v>6.7287376483997755E-2</v>
       </c>
       <c r="I2">
-        <f>'India Data'!O65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!I2</f>
+        <v>8.2350309742400679E-2</v>
       </c>
       <c r="J2">
-        <f>'India Data'!P65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!J2</f>
+        <v>0.10138181003540078</v>
       </c>
       <c r="K2">
-        <f>'India Data'!Q65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!K2</f>
+        <v>0.12495716208788703</v>
       </c>
       <c r="L2">
-        <f>'India Data'!R65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!L2</f>
+        <v>0.15345695739075971</v>
       </c>
       <c r="M2">
-        <f>'India Data'!S65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!M2</f>
+        <v>0.18691045381999558</v>
       </c>
       <c r="N2">
-        <f>'India Data'!T65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!N2</f>
+        <v>0.22484836188463839</v>
       </c>
       <c r="O2">
-        <f>'India Data'!U65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!O2</f>
+        <v>0.26622636671089761</v>
       </c>
       <c r="P2">
-        <f>'India Data'!V65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!P2</f>
+        <v>0.30948038879359629</v>
       </c>
       <c r="Q2">
-        <f>'India Data'!W65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Q2</f>
+        <v>0.35273441087629498</v>
       </c>
       <c r="R2">
-        <f>'India Data'!X65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!R2</f>
+        <v>0.39411241570255423</v>
       </c>
       <c r="S2">
-        <f>'India Data'!Y65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!S2</f>
+        <v>0.43205032376719699</v>
       </c>
       <c r="T2">
-        <f>'India Data'!Z65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!T2</f>
+        <v>0.46550382019643288</v>
       </c>
       <c r="U2">
-        <f>'India Data'!AA65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!U2</f>
+        <v>0.49400361549930555</v>
       </c>
       <c r="V2">
-        <f>'India Data'!AB65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!V2</f>
+        <v>0.51757896755179189</v>
       </c>
       <c r="W2">
-        <f>'India Data'!AC65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!W2</f>
+        <v>0.53661046784479194</v>
       </c>
       <c r="X2">
-        <f>'India Data'!AD65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!X2</f>
+        <v>0.55167340110319496</v>
       </c>
       <c r="Y2">
-        <f>'India Data'!AE65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Y2</f>
+        <v>0.5634100101639179</v>
       </c>
       <c r="Z2">
-        <f>'India Data'!AF65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Z2</f>
+        <v>0.57244370752665819</v>
       </c>
       <c r="AA2">
-        <f>'India Data'!AG65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AA2</f>
+        <v>0.57933174384472863</v>
       </c>
       <c r="AB2">
-        <f>'India Data'!AH65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AB2</f>
+        <v>0.58454610353357939</v>
       </c>
       <c r="AC2">
-        <f>'India Data'!AI65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AC2</f>
+        <v>0.58847200418383927</v>
       </c>
       <c r="AD2">
-        <f>'India Data'!AJ65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AD2</f>
+        <v>0.59141570811303845</v>
       </c>
       <c r="AE2">
-        <f>'India Data'!AK65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AE2</f>
+        <v>0.59361615539722601</v>
       </c>
       <c r="AF2">
-        <f>'India Data'!AL65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AF2</f>
+        <v>0.59525722600427877</v>
       </c>
       <c r="AG2">
-        <f>'India Data'!AM65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AG2</f>
+        <v>0.59647901765335387</v>
       </c>
       <c r="AH2">
-        <f>'India Data'!AN65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AH2</f>
+        <v>0.59738748893881111</v>
       </c>
       <c r="AI2">
-        <f>'India Data'!AO65</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AI2</f>
+        <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <f>'India Data'!H66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!B3</f>
+        <v>2.6163522012578631E-2</v>
       </c>
       <c r="C3">
-        <f>'India Data'!I66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!C3</f>
+        <v>2.5778764335922966E-2</v>
       </c>
       <c r="D3">
-        <f>'India Data'!J66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!D3</f>
+        <v>2.5394006659267387E-2</v>
       </c>
       <c r="E3">
-        <f>'India Data'!K66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!E3</f>
+        <v>2.5009248982611809E-2</v>
       </c>
       <c r="F3">
-        <f>'India Data'!L66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!F3</f>
+        <v>2.4624491305956231E-2</v>
       </c>
       <c r="G3">
-        <f>'India Data'!M66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!G3</f>
+        <v>2.4239733629300764E-2</v>
       </c>
       <c r="H3">
-        <f>'India Data'!N66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!H3</f>
+        <v>2.3854975952645185E-2</v>
       </c>
       <c r="I3">
-        <f>'India Data'!O66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!I3</f>
+        <v>2.3470218275989607E-2</v>
       </c>
       <c r="J3">
-        <f>'India Data'!P66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!J3</f>
+        <v>2.3085460599334029E-2</v>
       </c>
       <c r="K3">
-        <f>'India Data'!Q66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!K3</f>
+        <v>2.2700702922678451E-2</v>
       </c>
       <c r="L3">
-        <f>'India Data'!R66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!L3</f>
+        <v>2.2315945246022872E-2</v>
       </c>
       <c r="M3">
-        <f>'India Data'!S66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!M3</f>
+        <v>2.1931187569367294E-2</v>
       </c>
       <c r="N3">
-        <f>'India Data'!T66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!N3</f>
+        <v>2.1546429892711716E-2</v>
       </c>
       <c r="O3">
-        <f>'India Data'!U66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!O3</f>
+        <v>2.1161672216056138E-2</v>
       </c>
       <c r="P3">
-        <f>'India Data'!V66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!P3</f>
+        <v>2.0776914539400559E-2</v>
       </c>
       <c r="Q3">
-        <f>'India Data'!W66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Q3</f>
+        <v>2.0392156862744981E-2</v>
       </c>
       <c r="R3">
-        <f>'India Data'!X66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!R3</f>
+        <v>2.0007399186089514E-2</v>
       </c>
       <c r="S3">
-        <f>'India Data'!Y66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!S3</f>
+        <v>1.9622641509433936E-2</v>
       </c>
       <c r="T3">
-        <f>'India Data'!Z66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!T3</f>
+        <v>1.9237883832778357E-2</v>
       </c>
       <c r="U3">
-        <f>'India Data'!AA66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!U3</f>
+        <v>1.8853126156122779E-2</v>
       </c>
       <c r="V3">
-        <f>'India Data'!AB66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!V3</f>
+        <v>1.8468368479467201E-2</v>
       </c>
       <c r="W3">
-        <f>'India Data'!AC66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!W3</f>
+        <v>1.8083610802811623E-2</v>
       </c>
       <c r="X3">
-        <f>'India Data'!AD66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!X3</f>
+        <v>1.7698853126156044E-2</v>
       </c>
       <c r="Y3">
-        <f>'India Data'!AE66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Y3</f>
+        <v>1.7314095449500466E-2</v>
       </c>
       <c r="Z3">
-        <f>'India Data'!AF66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!Z3</f>
+        <v>1.6929337772844888E-2</v>
       </c>
       <c r="AA3">
-        <f>'India Data'!AG66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AA3</f>
+        <v>1.654458009618931E-2</v>
       </c>
       <c r="AB3">
-        <f>'India Data'!AH66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AB3</f>
+        <v>1.6159822419533731E-2</v>
       </c>
       <c r="AC3">
-        <f>'India Data'!AI66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AC3</f>
+        <v>1.5775064742878264E-2</v>
       </c>
       <c r="AD3">
-        <f>'India Data'!AJ66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AD3</f>
+        <v>1.5390307066222686E-2</v>
       </c>
       <c r="AE3">
-        <f>'India Data'!AK66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AE3</f>
+        <v>1.5005549389567108E-2</v>
       </c>
       <c r="AF3">
-        <f>'India Data'!AL66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AF3</f>
+        <v>1.4620791712911529E-2</v>
       </c>
       <c r="AG3">
-        <f>'India Data'!AM66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AG3</f>
+        <v>1.4236034036255951E-2</v>
       </c>
       <c r="AH3">
-        <f>'India Data'!AN66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AH3</f>
+        <v>1.3851276359600373E-2</v>
       </c>
       <c r="AI3">
-        <f>'India Data'!AO66</f>
-        <v>0</v>
+        <f>'MPNVbT-LDVs-psgr'!AI3</f>
+        <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <f>'India Data'!H67</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>'India Data'!I67</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>'India Data'!J67</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>'India Data'!K67</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>'India Data'!L67</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>'India Data'!M67</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>'India Data'!N67</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>'India Data'!O67</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>'India Data'!P67</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>'India Data'!Q67</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>'India Data'!R67</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>'India Data'!S67</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'India Data'!T67</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>'India Data'!U67</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>'India Data'!V67</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>'India Data'!W67</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>'India Data'!X67</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>'India Data'!Y67</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>'India Data'!Z67</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>'India Data'!AA67</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>'India Data'!AB67</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>'India Data'!AC67</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>'India Data'!AD67</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>'India Data'!AE67</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>'India Data'!AF67</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>'India Data'!AG67</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>'India Data'!AH67</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>'India Data'!AI67</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>'India Data'!AJ67</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>'India Data'!AK67</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>'India Data'!AL67</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>'India Data'!AM67</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>'India Data'!AN67</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>'India Data'!AO67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>'India Data'!H68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!B5</f>
+        <v>0.22218867924528304</v>
       </c>
       <c r="C5">
-        <f>'India Data'!I68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!C5</f>
+        <v>0.22872364039955428</v>
       </c>
       <c r="D5">
-        <f>'India Data'!J68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!D5</f>
+        <v>0.23525860155382716</v>
       </c>
       <c r="E5">
-        <f>'India Data'!K68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!E5</f>
+        <v>0.24179356270810004</v>
       </c>
       <c r="F5">
-        <f>'India Data'!L68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!F5</f>
+        <v>0.24832852386237469</v>
       </c>
       <c r="G5">
-        <f>'India Data'!M68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!G5</f>
+        <v>0.25486348501664757</v>
       </c>
       <c r="H5">
-        <f>'India Data'!N68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!H5</f>
+        <v>0.26139844617092045</v>
       </c>
       <c r="I5">
-        <f>'India Data'!O68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!I5</f>
+        <v>0.26793340732519333</v>
       </c>
       <c r="J5">
-        <f>'India Data'!P68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!J5</f>
+        <v>0.27446836847946621</v>
       </c>
       <c r="K5">
-        <f>'India Data'!Q68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!K5</f>
+        <v>0.28100332963373909</v>
       </c>
       <c r="L5">
-        <f>'India Data'!R68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!L5</f>
+        <v>0.28753829078801196</v>
       </c>
       <c r="M5">
-        <f>'India Data'!S68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!M5</f>
+        <v>0.29407325194228484</v>
       </c>
       <c r="N5">
-        <f>'India Data'!T68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!N5</f>
+        <v>0.30060821309655772</v>
       </c>
       <c r="O5">
-        <f>'India Data'!U68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!O5</f>
+        <v>0.3071431742508306</v>
       </c>
       <c r="P5">
-        <f>'India Data'!V68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!P5</f>
+        <v>0.31367813540510348</v>
       </c>
       <c r="Q5">
-        <f>'India Data'!W68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Q5</f>
+        <v>0.32021309655937813</v>
       </c>
       <c r="R5">
-        <f>'India Data'!X68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!R5</f>
+        <v>0.32674805771365101</v>
       </c>
       <c r="S5">
-        <f>'India Data'!Y68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!S5</f>
+        <v>0.33328301886792389</v>
       </c>
       <c r="T5">
-        <f>'India Data'!Z68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!T5</f>
+        <v>0.33981798002219676</v>
       </c>
       <c r="U5">
-        <f>'India Data'!AA68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!U5</f>
+        <v>0.34635294117646964</v>
       </c>
       <c r="V5">
-        <f>'India Data'!AB68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!V5</f>
+        <v>0.35288790233074252</v>
       </c>
       <c r="W5">
-        <f>'India Data'!AC68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!W5</f>
+        <v>0.3594228634850154</v>
       </c>
       <c r="X5">
-        <f>'India Data'!AD68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!X5</f>
+        <v>0.36595782463928828</v>
       </c>
       <c r="Y5">
-        <f>'India Data'!AE68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Y5</f>
+        <v>0.37249278579356115</v>
       </c>
       <c r="Z5">
-        <f>'India Data'!AF68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!Z5</f>
+        <v>0.37902774694783403</v>
       </c>
       <c r="AA5">
-        <f>'India Data'!AG68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AA5</f>
+        <v>0.38556270810210691</v>
       </c>
       <c r="AB5">
-        <f>'India Data'!AH68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AB5</f>
+        <v>0.39209766925637979</v>
       </c>
       <c r="AC5">
-        <f>'India Data'!AI68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AC5</f>
+        <v>0.39863263041065444</v>
       </c>
       <c r="AD5">
-        <f>'India Data'!AJ68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AD5</f>
+        <v>0.40516759156492732</v>
       </c>
       <c r="AE5">
-        <f>'India Data'!AK68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AE5</f>
+        <v>0.4117025527192002</v>
       </c>
       <c r="AF5">
-        <f>'India Data'!AL68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AF5</f>
+        <v>0.41823751387347308</v>
       </c>
       <c r="AG5">
-        <f>'India Data'!AM68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AG5</f>
+        <v>0.42477247502774595</v>
       </c>
       <c r="AH5">
-        <f>'India Data'!AN68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AH5</f>
+        <v>0.43130743618201883</v>
       </c>
       <c r="AI5">
-        <f>'India Data'!AO68</f>
-        <v>1</v>
+        <f>'MPNVbT-LDVs-psgr'!AI5</f>
+        <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'India Data'!H69</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'India Data'!I69</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'India Data'!J69</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'India Data'!K69</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'India Data'!L69</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'India Data'!M69</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>'India Data'!N69</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>'India Data'!O69</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>'India Data'!P69</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>'India Data'!Q69</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>'India Data'!R69</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>'India Data'!S69</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>'India Data'!T69</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>'India Data'!U69</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>'India Data'!V69</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>'India Data'!W69</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>'India Data'!X69</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>'India Data'!Y69</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>'India Data'!Z69</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>'India Data'!AA69</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>'India Data'!AB69</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>'India Data'!AC69</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>'India Data'!AD69</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>'India Data'!AE69</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>'India Data'!AF69</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>'India Data'!AG69</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>'India Data'!AH69</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>'India Data'!AI69</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>'India Data'!AJ69</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>'India Data'!AK69</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>'India Data'!AL69</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>'India Data'!AM69</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>'India Data'!AN69</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>'India Data'!AO69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <f>'India Data'!H70</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'India Data'!I70</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'India Data'!J70</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'India Data'!K70</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'India Data'!L70</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'India Data'!M70</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>'India Data'!N70</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>'India Data'!O70</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>'India Data'!P70</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>'India Data'!Q70</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>'India Data'!R70</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>'India Data'!S70</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>'India Data'!T70</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>'India Data'!U70</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>'India Data'!V70</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>'India Data'!W70</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>'India Data'!X70</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>'India Data'!Y70</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>'India Data'!Z70</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>'India Data'!AA70</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>'India Data'!AB70</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>'India Data'!AC70</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>'India Data'!AD70</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>'India Data'!AE70</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>'India Data'!AF70</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>'India Data'!AG70</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>'India Data'!AH70</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>'India Data'!AI70</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>'India Data'!AJ70</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>'India Data'!AK70</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>'India Data'!AL70</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>'India Data'!AM70</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>'India Data'!AN70</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>'India Data'!AO70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B8">
-        <f>'India Data'!H71</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>'India Data'!I71</f>
+        <f>'MPNVbT-LDVs-psgr'!C8</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>'India Data'!J71</f>
+        <f>'MPNVbT-LDVs-psgr'!D8</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>'India Data'!K71</f>
+        <f>'MPNVbT-LDVs-psgr'!E8</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>'India Data'!L71</f>
+        <f>'MPNVbT-LDVs-psgr'!F8</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>'India Data'!M71</f>
+        <f>'MPNVbT-LDVs-psgr'!G8</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>'India Data'!N71</f>
+        <f>'MPNVbT-LDVs-psgr'!H8</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>'India Data'!O71</f>
+        <f>'MPNVbT-LDVs-psgr'!I8</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>'India Data'!P71</f>
+        <f>'MPNVbT-LDVs-psgr'!J8</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>'India Data'!Q71</f>
+        <f>'MPNVbT-LDVs-psgr'!K8</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>'India Data'!R71</f>
+        <f>'MPNVbT-LDVs-psgr'!L8</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>'India Data'!S71</f>
+        <f>'MPNVbT-LDVs-psgr'!M8</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>'India Data'!T71</f>
+        <f>'MPNVbT-LDVs-psgr'!N8</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>'India Data'!U71</f>
+        <f>'MPNVbT-LDVs-psgr'!O8</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>'India Data'!V71</f>
+        <f>'MPNVbT-LDVs-psgr'!P8</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>'India Data'!W71</f>
+        <f>'MPNVbT-LDVs-psgr'!Q8</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>'India Data'!X71</f>
+        <f>'MPNVbT-LDVs-psgr'!R8</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>'India Data'!Y71</f>
+        <f>'MPNVbT-LDVs-psgr'!S8</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>'India Data'!Z71</f>
+        <f>'MPNVbT-LDVs-psgr'!T8</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>'India Data'!AA71</f>
+        <f>'MPNVbT-LDVs-psgr'!U8</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>'India Data'!AB71</f>
+        <f>'MPNVbT-LDVs-psgr'!V8</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>'India Data'!AC71</f>
+        <f>'MPNVbT-LDVs-psgr'!W8</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>'India Data'!AD71</f>
+        <f>'MPNVbT-LDVs-psgr'!X8</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>'India Data'!AE71</f>
+        <f>'MPNVbT-LDVs-psgr'!Y8</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>'India Data'!AF71</f>
+        <f>'MPNVbT-LDVs-psgr'!Z8</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>'India Data'!AG71</f>
+        <f>'MPNVbT-LDVs-psgr'!AA8</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>'India Data'!AH71</f>
+        <f>'MPNVbT-LDVs-psgr'!AB8</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>'India Data'!AI71</f>
+        <f>'MPNVbT-LDVs-psgr'!AC8</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>'India Data'!AJ71</f>
+        <f>'MPNVbT-LDVs-psgr'!AD8</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>'India Data'!AK71</f>
+        <f>'MPNVbT-LDVs-psgr'!AE8</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>'India Data'!AL71</f>
+        <f>'MPNVbT-LDVs-psgr'!AF8</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>'India Data'!AM71</f>
+        <f>'MPNVbT-LDVs-psgr'!AG8</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>'India Data'!AN71</f>
+        <f>'MPNVbT-LDVs-psgr'!AH8</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>'India Data'!AO71</f>
+        <f>'MPNVbT-LDVs-psgr'!AI8</f>
         <v>0</v>
       </c>
     </row>
@@ -7864,7 +7800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7874,12 +7810,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -7986,7 +7922,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8127,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8268,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8409,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -8691,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -8832,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -8979,7 +8915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8989,12 +8925,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -9101,25 +9037,25 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H79</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="C2">
         <f>'India Data'!I79</f>
-        <v>5.065932652530121E-2</v>
+        <v>5.0659326525301224E-2</v>
       </c>
       <c r="D2">
         <f>'India Data'!J79</f>
-        <v>5.4446182352703411E-2</v>
+        <v>5.4446182352703418E-2</v>
       </c>
       <c r="E2">
         <f>'India Data'!K79</f>
-        <v>5.9475863471248468E-2</v>
+        <v>5.9475863471248475E-2</v>
       </c>
       <c r="F2">
         <f>'India Data'!L79</f>
@@ -9127,19 +9063,19 @@
       </c>
       <c r="G2">
         <f>'India Data'!M79</f>
-        <v>7.4833692245528313E-2</v>
+        <v>7.4833692245528327E-2</v>
       </c>
       <c r="H2">
         <f>'India Data'!N79</f>
-        <v>8.615462223712117E-2</v>
+        <v>8.6154622237121184E-2</v>
       </c>
       <c r="I2">
         <f>'India Data'!O79</f>
-        <v>0.10068406698595314</v>
+        <v>0.10068406698595316</v>
       </c>
       <c r="J2">
         <f>'India Data'!P79</f>
-        <v>0.11904152281815424</v>
+        <v>0.11904152281815425</v>
       </c>
       <c r="K2">
         <f>'India Data'!Q79</f>
@@ -9159,7 +9095,7 @@
       </c>
       <c r="O2">
         <f>'India Data'!U79</f>
-        <v>0.27804772946294665</v>
+        <v>0.2780477294629467</v>
       </c>
       <c r="P2">
         <f>'India Data'!V79</f>
@@ -9242,7 +9178,7 @@
         <v>0.59813097263345971</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -9383,148 +9319,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <f>'India Data'!H81</f>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="C4">
         <f>'India Data'!I81</f>
-        <v>0.96162330877778879</v>
+        <v>0.96162330877778857</v>
       </c>
       <c r="D4">
         <f>'India Data'!J81</f>
-        <v>0.96278623881482583</v>
+        <v>0.96278623881482517</v>
       </c>
       <c r="E4">
         <f>'India Data'!K81</f>
-        <v>0.96394916885186244</v>
+        <v>0.96394916885186221</v>
       </c>
       <c r="F4">
         <f>'India Data'!L81</f>
-        <v>0.96511209888889904</v>
+        <v>0.96511209888889882</v>
       </c>
       <c r="G4">
         <f>'India Data'!M81</f>
-        <v>0.96627502892593564</v>
+        <v>0.96627502892593542</v>
       </c>
       <c r="H4">
         <f>'India Data'!N81</f>
-        <v>0.96743795896297224</v>
+        <v>0.96743795896297202</v>
       </c>
       <c r="I4">
         <f>'India Data'!O81</f>
-        <v>0.96860088900000929</v>
+        <v>0.96860088900000862</v>
       </c>
       <c r="J4">
         <f>'India Data'!P81</f>
-        <v>0.96976381903704589</v>
+        <v>0.96976381903704567</v>
       </c>
       <c r="K4">
         <f>'India Data'!Q81</f>
-        <v>0.9709267490740825</v>
+        <v>0.97092674907408227</v>
       </c>
       <c r="L4">
         <f>'India Data'!R81</f>
-        <v>0.9720896791111191</v>
+        <v>0.97208967911111888</v>
       </c>
       <c r="M4">
         <f>'India Data'!S81</f>
-        <v>0.97325260914815614</v>
+        <v>0.97325260914815548</v>
       </c>
       <c r="N4">
         <f>'India Data'!T81</f>
-        <v>0.97441553918519275</v>
+        <v>0.97441553918519253</v>
       </c>
       <c r="O4">
         <f>'India Data'!U81</f>
-        <v>0.97557846922222935</v>
+        <v>0.97557846922222913</v>
       </c>
       <c r="P4">
         <f>'India Data'!V81</f>
-        <v>0.97674139925926595</v>
+        <v>0.97674139925926573</v>
       </c>
       <c r="Q4">
         <f>'India Data'!W81</f>
-        <v>0.97790432929630255</v>
+        <v>0.97790432929630233</v>
       </c>
       <c r="R4">
         <f>'India Data'!X81</f>
-        <v>0.9790672593333396</v>
+        <v>0.97906725933333894</v>
       </c>
       <c r="S4">
         <f>'India Data'!Y81</f>
-        <v>0.9802301893703762</v>
+        <v>0.98023018937037598</v>
       </c>
       <c r="T4">
         <f>'India Data'!Z81</f>
-        <v>0.98139311940741281</v>
+        <v>0.98139311940741258</v>
       </c>
       <c r="U4">
         <f>'India Data'!AA81</f>
-        <v>0.98255604944444941</v>
+        <v>0.98255604944444919</v>
       </c>
       <c r="V4">
         <f>'India Data'!AB81</f>
-        <v>0.98371897948148601</v>
+        <v>0.98371897948148579</v>
       </c>
       <c r="W4">
         <f>'India Data'!AC81</f>
-        <v>0.98488190951852306</v>
+        <v>0.98488190951852284</v>
       </c>
       <c r="X4">
         <f>'India Data'!AD81</f>
-        <v>0.98604483955555966</v>
+        <v>0.98604483955555944</v>
       </c>
       <c r="Y4">
         <f>'India Data'!AE81</f>
-        <v>0.98720776959259626</v>
+        <v>0.98720776959259604</v>
       </c>
       <c r="Z4">
         <f>'India Data'!AF81</f>
-        <v>0.98837069962963287</v>
+        <v>0.98837069962963264</v>
       </c>
       <c r="AA4">
         <f>'India Data'!AG81</f>
-        <v>0.98953362966666991</v>
+        <v>0.98953362966666925</v>
       </c>
       <c r="AB4">
         <f>'India Data'!AH81</f>
-        <v>0.99069655970370651</v>
+        <v>0.99069655970370629</v>
       </c>
       <c r="AC4">
         <f>'India Data'!AI81</f>
-        <v>0.99185948974074312</v>
+        <v>0.99185948974074289</v>
       </c>
       <c r="AD4">
         <f>'India Data'!AJ81</f>
-        <v>0.99302241977777972</v>
+        <v>0.9930224197777795</v>
       </c>
       <c r="AE4">
         <f>'India Data'!AK81</f>
-        <v>0.99418534981481632</v>
+        <v>0.9941853498148161</v>
       </c>
       <c r="AF4">
         <f>'India Data'!AL81</f>
-        <v>0.99534827985185337</v>
+        <v>0.99534827985185315</v>
       </c>
       <c r="AG4">
         <f>'India Data'!AM81</f>
-        <v>0.99651120988888997</v>
+        <v>0.99651120988888975</v>
       </c>
       <c r="AH4">
         <f>'India Data'!AN81</f>
-        <v>0.99767413992592657</v>
+        <v>0.99767413992592635</v>
       </c>
       <c r="AI4">
         <f>'India Data'!AO81</f>
-        <v>0.99883706996296318</v>
+        <v>0.99883706996296295</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -9806,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -9947,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -10094,7 +10030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10104,12 +10040,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -10216,7 +10152,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10357,7 +10293,7 @@
         <v>0.29911210755440121</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -10498,7 +10434,7 @@
         <v>5.8197367918530585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -10639,7 +10575,7 @@
         <v>0.78823529411764781</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -10780,7 +10716,7 @@
         <v>0.72228445041798395</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -10921,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -11062,7 +10998,7 @@
         <v>4.4598451660617933E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -11209,21 +11145,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="2" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11249,47 +11185,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9">
-        <v>530028.32526106341</v>
+        <v>615848.20150874218</v>
       </c>
       <c r="C2" s="9">
-        <v>731373.36754717003</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="D2" s="9">
-        <v>19750111.264474779</v>
+        <v>22947963.197690368</v>
       </c>
       <c r="E2" s="9">
-        <v>6211047.6751698116</v>
+        <v>7216713.4432944926</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="9">
-        <v>731373.36754717003</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9">
-        <v>7519.9076535986878</v>
+        <v>8406.8117715651679</v>
       </c>
       <c r="C3" s="9">
-        <v>23857.181775685964</v>
+        <v>26670.91749354481</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>1725289.9105707153</v>
+        <v>1928772.027221299</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -11301,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11327,12 +11263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9">
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -11341,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -11353,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11379,18 +11315,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9">
-        <v>6682276.8117987346</v>
+        <v>7487182.6612117011</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>162319767.18820128</v>
+        <v>181871805.17837322</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -11411,21 +11347,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
+    <col min="2" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -11451,7 +11387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -11465,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>2757639</v>
+        <v>3091878.5080698477</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -11477,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11491,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>5498871</v>
+        <v>6177534.8826565482</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -11503,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11529,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -11543,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -11555,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -11581,27 +11517,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9">
-        <v>277078.28624999995</v>
+        <v>293883.8740396616</v>
       </c>
       <c r="C7" s="9">
-        <v>928267.03387483058</v>
+        <v>984569.0752262657</v>
       </c>
       <c r="D7" s="9">
-        <v>3283890.7999999993</v>
+        <v>3483068.1367663592</v>
       </c>
       <c r="E7" s="9">
-        <v>3009131.0036627888</v>
+        <v>3191643.3756608581</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>711359.87621238094</v>
+        <v>754505.88022275467</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -11613,20 +11549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" customWidth="1"/>
-    <col min="3" max="3" width="55.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -11636,7 +11572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -11644,7 +11580,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11652,7 +11588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -11660,84 +11596,84 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11745,16 +11681,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <f>'SYVbT-passenger'!B2/SUM('SYVbT-passenger'!B2:F2)</f>
-        <v>1.9470186233296542E-2</v>
+        <v>1.9470186233296546E-2</v>
       </c>
       <c r="B25">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A14*A17</f>
         <v>0.3</v>
@@ -11763,7 +11699,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <f>A20*A26</f>
         <v>0.6</v>
@@ -11772,22 +11708,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -11795,24 +11731,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -11828,25 +11764,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H51" sqref="H51:AP64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11858,7 +11794,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11869,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -11880,7 +11816,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11894,7 +11830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -11902,7 +11838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11919,7 +11855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -12042,7 +11978,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12205,7 +12141,7 @@
         <v>0.5985633089637491</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12298,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -12519,17 +12455,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4">
         <f>'SYVbT-passenger'!E$2/SUM('SYVbT-passenger'!B$2:H$2)</f>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="E11" s="4">
         <f>MIN(1,D11*'India Assumptions'!$A$4)</f>
-        <v>0.4443773584905662</v>
+        <v>0.44437735849056609</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -12537,7 +12473,7 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="I11">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,I$7))</f>
@@ -12676,7 +12612,7 @@
         <v>0.44437735849056459</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -12833,7 +12769,7 @@
         <v>0.29925821305300959</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="31" t="s">
@@ -12992,7 +12928,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="35" t="s">
@@ -13150,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -13312,7 +13248,7 @@
         <v>0.1496291065265048</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -13469,7 +13405,7 @@
         <v>1.3081761006289216E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -13626,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -13783,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -13939,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="31" t="s">
@@ -14098,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="35" t="s">
@@ -14256,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -14268,7 +14204,7 @@
       </c>
       <c r="D22" s="28">
         <f>'SYVbT-passenger'!B$3/SUM('SYVbT-passenger'!B$3:H$3)</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="E22" s="29">
         <f>'India Assumptions'!$A$27</f>
@@ -14280,7 +14216,7 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="3"/>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="I22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,I$7))</f>
@@ -14296,7 +14232,7 @@
       </c>
       <c r="L22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>3.2533285637654785E-2</v>
+        <v>3.2533285637654792E-2</v>
       </c>
       <c r="M22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
@@ -14304,7 +14240,7 @@
       </c>
       <c r="N22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>5.3828355286344581E-2</v>
+        <v>5.3828355286344588E-2</v>
       </c>
       <c r="O22">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
@@ -14419,17 +14355,17 @@
         <v>0.5985270108655667</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="28">
         <f>'SYVbT-passenger'!C$3/SUM('SYVbT-passenger'!B$3:H$3)</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="E23" s="4">
         <f>MIN(1,D23*'India Assumptions'!$A$10)</f>
-        <v>6.7904679076017148E-3</v>
+        <v>6.7904679076017166E-3</v>
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="4"/>
@@ -14437,7 +14373,7 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="3"/>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="I23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,I$7))</f>
@@ -14457,7 +14393,7 @@
       </c>
       <c r="M23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>1.258233759349725E-2</v>
+        <v>1.2582337593497306E-2</v>
       </c>
       <c r="N23">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
@@ -14576,7 +14512,7 @@
         <v>6.7904679076016827E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14733,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>5</v>
       </c>
@@ -14890,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -15046,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="31" t="s">
@@ -15205,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="35" t="s">
         <v>64</v>
@@ -15362,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -15524,7 +15460,7 @@
         <v>3.9901095073734613E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -15681,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -15838,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>5</v>
       </c>
@@ -15995,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -16151,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="31" t="s">
@@ -16310,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="35" t="s">
@@ -16468,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>15</v>
       </c>
@@ -16629,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16784,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -16939,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" t="s">
         <v>5</v>
@@ -17095,7 +17031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" t="s">
         <v>6</v>
@@ -17251,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="31" t="s">
@@ -17408,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="35" t="s">
         <v>64</v>
@@ -17564,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
@@ -17725,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17880,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18035,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>5</v>
       </c>
@@ -18190,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -18345,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="31" t="s">
@@ -18502,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="35" t="s">
@@ -18659,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="37" t="s">
@@ -18677,7 +18613,7 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -18689,7 +18625,7 @@
       </c>
       <c r="D51">
         <f>'SYVbT-passenger'!B$5/SUM('SYVbT-passenger'!B$5:H$5)</f>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -18700,11 +18636,11 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="5"/>
-        <v>0.5109999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D51:$E51,$D$50:$E$50,I$7))</f>
-        <v>0.65234569321637303</v>
+        <v>0.65234569321637315</v>
       </c>
       <c r="J51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)-5))),TREND($D51:$E51,$D$50:$E$50,J$7))</f>
@@ -18716,7 +18652,7 @@
       </c>
       <c r="L51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)-5))),TREND($D51:$E51,$D$50:$E$50,L$7))</f>
-        <v>0.75549999999999995</v>
+        <v>0.75550000000000006</v>
       </c>
       <c r="M51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)-5))),TREND($D51:$E51,$D$50:$E$50,M$7))</f>
@@ -18728,7 +18664,7 @@
       </c>
       <c r="O51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)-5))),TREND($D51:$E51,$D$50:$E$50,O$7))</f>
-        <v>0.85865430678362686</v>
+        <v>0.85865430678362697</v>
       </c>
       <c r="P51">
         <f>IF($F51="s-curve",$D51+($E51-$D51)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)-5))),TREND($D51:$E51,$D$50:$E$50,P$7))</f>
@@ -18839,7 +18775,7 @@
         <v>0.99993966005234269</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -18995,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -19151,13 +19087,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54">
         <f>'SYVbT-passenger'!E$5/SUM('SYVbT-passenger'!B$5:H$5)</f>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="E54">
         <v>0.6</v>
@@ -19168,7 +19104,7 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="7"/>
-        <v>0.48900000000000005</v>
+        <v>0.48899999999999993</v>
       </c>
       <c r="I54">
         <f>IF($F54="s-curve",$D54+($E54-$D54)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D54:$E54,$D$50:$E$50,I$7))</f>
@@ -19307,7 +19243,7 @@
         <v>0.7585714285714289</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" t="s">
         <v>6</v>
@@ -19464,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="31" t="s">
@@ -19622,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="35" t="s">
         <v>64</v>
@@ -19779,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>16</v>
       </c>
@@ -19941,7 +19877,7 @@
         <v>0.99995919752687379</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" t="s">
         <v>3</v>
@@ -20098,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="C60" t="s">
         <v>4</v>
@@ -20255,13 +20191,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61">
         <f>'SYVbT-freight'!E$5/SUM('SYVbT-freight'!B$5:H$5)</f>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="E61">
         <v>0.4</v>
@@ -20272,7 +20208,7 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="7"/>
-        <v>0.33066666666666639</v>
+        <v>0.33066666666666644</v>
       </c>
       <c r="I61">
         <f>IF($F61="s-curve",$D61+($E61-$D61)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)-5))),TREND($D61:$E61,$D$50:$E$50,I$7))</f>
@@ -20411,7 +20347,7 @@
         <v>0.49904761904762118</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>6</v>
       </c>
@@ -20567,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="31" t="s">
@@ -20725,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="35" t="s">
@@ -20883,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -21044,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -21199,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -21354,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -21509,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>6</v>
       </c>
@@ -21664,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="31" t="s">
@@ -21821,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="35" t="s">
         <v>64</v>
@@ -21977,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>17</v>
       </c>
@@ -22138,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -22293,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -22448,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>5</v>
       </c>
@@ -22603,7 +22539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>6</v>
       </c>
@@ -22758,7 +22694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="31" t="s">
@@ -22915,7 +22851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="35" t="s">
@@ -23072,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -23084,7 +23020,7 @@
       </c>
       <c r="D79" s="28">
         <f>'SYVbT-passenger'!B$7/SUM('SYVbT-passenger'!B$7:H$7)</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="E79" s="29">
         <f>'India Assumptions'!$A$27</f>
@@ -23096,19 +23032,19 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" ref="H79:H92" si="8">D79</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="I79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,I$7))</f>
-        <v>5.065932652530121E-2</v>
+        <v>5.0659326525301224E-2</v>
       </c>
       <c r="J79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,J$7))</f>
-        <v>5.4446182352703411E-2</v>
+        <v>5.4446182352703418E-2</v>
       </c>
       <c r="K79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,K$7))</f>
-        <v>5.9475863471248468E-2</v>
+        <v>5.9475863471248475E-2</v>
       </c>
       <c r="L79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,L$7))</f>
@@ -23116,19 +23052,19 @@
       </c>
       <c r="M79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,M$7))</f>
-        <v>7.4833692245528313E-2</v>
+        <v>7.4833692245528327E-2</v>
       </c>
       <c r="N79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,N$7))</f>
-        <v>8.615462223712117E-2</v>
+        <v>8.6154622237121184E-2</v>
       </c>
       <c r="O79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,O$7))</f>
-        <v>0.10068406698595314</v>
+        <v>0.10068406698595316</v>
       </c>
       <c r="P79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,P$7))</f>
-        <v>0.11904152281815424</v>
+        <v>0.11904152281815425</v>
       </c>
       <c r="Q79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,Q$7))</f>
@@ -23148,7 +23084,7 @@
       </c>
       <c r="U79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,U$7))</f>
-        <v>0.27804772946294665</v>
+        <v>0.2780477294629467</v>
       </c>
       <c r="V79">
         <f>IF($F79="s-curve",$D79+($E79-$D79)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D79:$E79,$D$7:$E$7,V$7))</f>
@@ -23235,7 +23171,7 @@
         <v>0.59861419268914939</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -23392,13 +23328,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="28">
         <f>'SYVbT-passenger'!D$7/SUM('SYVbT-passenger'!B$7:H$7)</f>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="E81" s="10">
         <f>MIN(1,D81*'India Assumptions'!$A$4)</f>
@@ -23410,146 +23346,146 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" si="8"/>
-        <v>0.9604603787407523</v>
+        <v>0.96046037874075219</v>
       </c>
       <c r="I81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,I$7))</f>
-        <v>0.96162330877778879</v>
+        <v>0.96162330877778857</v>
       </c>
       <c r="J81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,J$7))</f>
-        <v>0.96278623881482583</v>
+        <v>0.96278623881482517</v>
       </c>
       <c r="K81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,K$7))</f>
-        <v>0.96394916885186244</v>
+        <v>0.96394916885186221</v>
       </c>
       <c r="L81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,L$7))</f>
-        <v>0.96511209888889904</v>
+        <v>0.96511209888889882</v>
       </c>
       <c r="M81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,M$7))</f>
-        <v>0.96627502892593564</v>
+        <v>0.96627502892593542</v>
       </c>
       <c r="N81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,N$7))</f>
-        <v>0.96743795896297224</v>
+        <v>0.96743795896297202</v>
       </c>
       <c r="O81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,O$7))</f>
-        <v>0.96860088900000929</v>
+        <v>0.96860088900000862</v>
       </c>
       <c r="P81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,P$7))</f>
-        <v>0.96976381903704589</v>
+        <v>0.96976381903704567</v>
       </c>
       <c r="Q81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Q$7))</f>
-        <v>0.9709267490740825</v>
+        <v>0.97092674907408227</v>
       </c>
       <c r="R81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,R$7))</f>
-        <v>0.9720896791111191</v>
+        <v>0.97208967911111888</v>
       </c>
       <c r="S81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,S$7))</f>
-        <v>0.97325260914815614</v>
+        <v>0.97325260914815548</v>
       </c>
       <c r="T81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,T$7))</f>
-        <v>0.97441553918519275</v>
+        <v>0.97441553918519253</v>
       </c>
       <c r="U81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,U$7))</f>
-        <v>0.97557846922222935</v>
+        <v>0.97557846922222913</v>
       </c>
       <c r="V81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,V$7))</f>
-        <v>0.97674139925926595</v>
+        <v>0.97674139925926573</v>
       </c>
       <c r="W81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,W$7))</f>
-        <v>0.97790432929630255</v>
+        <v>0.97790432929630233</v>
       </c>
       <c r="X81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,X$7))</f>
-        <v>0.9790672593333396</v>
+        <v>0.97906725933333894</v>
       </c>
       <c r="Y81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Y$7))</f>
-        <v>0.9802301893703762</v>
+        <v>0.98023018937037598</v>
       </c>
       <c r="Z81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,Z$7))</f>
-        <v>0.98139311940741281</v>
+        <v>0.98139311940741258</v>
       </c>
       <c r="AA81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AA$7))</f>
-        <v>0.98255604944444941</v>
+        <v>0.98255604944444919</v>
       </c>
       <c r="AB81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AB$7))</f>
-        <v>0.98371897948148601</v>
+        <v>0.98371897948148579</v>
       </c>
       <c r="AC81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AC$7))</f>
-        <v>0.98488190951852306</v>
+        <v>0.98488190951852284</v>
       </c>
       <c r="AD81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AD$7))</f>
-        <v>0.98604483955555966</v>
+        <v>0.98604483955555944</v>
       </c>
       <c r="AE81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AE$7))</f>
-        <v>0.98720776959259626</v>
+        <v>0.98720776959259604</v>
       </c>
       <c r="AF81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AF$7))</f>
-        <v>0.98837069962963287</v>
+        <v>0.98837069962963264</v>
       </c>
       <c r="AG81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AG$7))</f>
-        <v>0.98953362966666991</v>
+        <v>0.98953362966666925</v>
       </c>
       <c r="AH81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AH$7))</f>
-        <v>0.99069655970370651</v>
+        <v>0.99069655970370629</v>
       </c>
       <c r="AI81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AI$7))</f>
-        <v>0.99185948974074312</v>
+        <v>0.99185948974074289</v>
       </c>
       <c r="AJ81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AJ$7))</f>
-        <v>0.99302241977777972</v>
+        <v>0.9930224197777795</v>
       </c>
       <c r="AK81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AK$7))</f>
-        <v>0.99418534981481632</v>
+        <v>0.9941853498148161</v>
       </c>
       <c r="AL81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AL$7))</f>
-        <v>0.99534827985185337</v>
+        <v>0.99534827985185315</v>
       </c>
       <c r="AM81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AM$7))</f>
-        <v>0.99651120988888997</v>
+        <v>0.99651120988888975</v>
       </c>
       <c r="AN81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AN$7))</f>
-        <v>0.99767413992592657</v>
+        <v>0.99767413992592635</v>
       </c>
       <c r="AO81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AO$7))</f>
-        <v>0.99883706996296318</v>
+        <v>0.99883706996296295</v>
       </c>
       <c r="AP81">
         <f>IF($F81="s-curve",$D81+($E81-$D81)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D81:$E81,$D$7:$E$7,AP$7))</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>5</v>
       </c>
@@ -23706,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>6</v>
       </c>
@@ -23862,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="31" t="s">
@@ -24021,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
       <c r="C85" s="35" t="s">
         <v>64</v>
@@ -24178,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>18</v>
       </c>
@@ -24340,7 +24276,7 @@
         <v>0.29934166408454599</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -24497,7 +24433,7 @@
         <v>5.6534585978000873E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>4</v>
       </c>
@@ -24654,7 +24590,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>5</v>
       </c>
@@ -24811,7 +24747,7 @@
         <v>0.73306481534959644</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>6</v>
       </c>
@@ -24967,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="31" t="s">
@@ -25126,7 +25062,7 @@
         <v>4.3324210184600531E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="35" t="s">
@@ -25294,7 +25230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25304,12 +25240,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -25416,7 +25352,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -25557,7 +25493,7 @@
         <v>0.59806234615520404</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -25698,7 +25634,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -25839,13 +25775,13 @@
         <v>0.99136833821006931</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>'India Data'!H11</f>
-        <v>0.2221886792452831</v>
+        <v>0.22218867924528304</v>
       </c>
       <c r="C5">
         <f>'India Data'!I11</f>
@@ -25980,7 +25916,7 @@
         <v>0.43784239733629171</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -26121,7 +26057,7 @@
         <v>0.29899955780777598</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -26262,7 +26198,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -26409,7 +26345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26419,12 +26355,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -26531,7 +26467,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -26672,7 +26608,7 @@
         <v>0.14949977890388799</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -26813,7 +26749,7 @@
         <v>1.3466518682944795E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -26954,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -27095,7 +27031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -27236,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -27377,7 +27313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -27524,7 +27460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27534,12 +27470,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -27646,13 +27582,13 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>'India Data'!H22</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="C2">
         <f>'India Data'!I22</f>
@@ -27668,7 +27604,7 @@
       </c>
       <c r="F2">
         <f>'India Data'!L22</f>
-        <v>3.2533285637654785E-2</v>
+        <v>3.2533285637654792E-2</v>
       </c>
       <c r="G2">
         <f>'India Data'!M22</f>
@@ -27676,7 +27612,7 @@
       </c>
       <c r="H2">
         <f>'India Data'!N22</f>
-        <v>5.3828355286344581E-2</v>
+        <v>5.3828355286344588E-2</v>
       </c>
       <c r="I2">
         <f>'India Data'!O22</f>
@@ -27787,13 +27723,13 @@
         <v>0.5980133911970904</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <f>'India Data'!H23</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203433E-2</v>
       </c>
       <c r="C3">
         <f>'India Data'!I23</f>
@@ -27813,7 +27749,7 @@
       </c>
       <c r="G3">
         <f>'India Data'!M23</f>
-        <v>1.258233759349725E-2</v>
+        <v>1.2582337593497306E-2</v>
       </c>
       <c r="H3">
         <f>'India Data'!N23</f>
@@ -27928,7 +27864,7 @@
         <v>6.9901875519429169E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -28069,7 +28005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -28210,7 +28146,7 @@
         <v>0.99947465537210545</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -28351,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -28492,7 +28428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
@@ -28639,7 +28575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -28647,12 +28583,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
@@ -28759,7 +28695,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -28900,7 +28836,7 @@
         <v>3.9866607707703471E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -29041,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -29182,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -29323,7 +29259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -29464,7 +29400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
@@ -29605,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>64</v>
       </c>
